--- a/ASHRAE901_ApartmentHighRise_STD2019_TampaTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_TampaTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1972.25</t>
+          <t>3011.22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1423.47</t>
+          <t>2803.35</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>407.46</t>
+          <t>533.08</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1212.81</t>
+          <t>2374.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1033.96</t>
+          <t>1927.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1028.09</t>
+          <t>1917.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1423.15</t>
+          <t>2169.91</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1417.31</t>
+          <t>2160.41</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2223.10</t>
+          <t>3366.04</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1644.88</t>
+          <t>3092.97</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1913.63</t>
+          <t>2943.68</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1373.81</t>
+          <t>2609.65</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1086.52</t>
+          <t>2045.62</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1079.53</t>
+          <t>2036.03</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1481.77</t>
+          <t>2278.96</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1475.60</t>
+          <t>2287.33</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2203.61</t>
+          <t>3338.33</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1628.30</t>
+          <t>3076.67</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1890.36</t>
+          <t>2900.60</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1361.05</t>
+          <t>2596.72</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1072.60</t>
+          <t>2029.19</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1065.64</t>
+          <t>2019.60</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1465.56</t>
+          <t>2254.32</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1458.89</t>
+          <t>2259.95</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2208.12</t>
+          <t>3344.89</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1579.51</t>
+          <t>3090.44</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1894.77</t>
+          <t>2902.52</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1324.04</t>
+          <t>2616.13</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1069.38</t>
+          <t>2037.86</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1062.37</t>
+          <t>2028.33</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1468.85</t>
+          <t>2260.81</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1462.06</t>
+          <t>2266.52</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2213.47</t>
+          <t>3350.46</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1574.25</t>
+          <t>3104.75</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1900.99</t>
+          <t>2915.20</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1320.60</t>
+          <t>2635.00</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1066.08</t>
+          <t>2047.58</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1059.10</t>
+          <t>2038.08</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1473.41</t>
+          <t>2267.84</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1466.60</t>
+          <t>2273.55</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2216.86</t>
+          <t>3362.28</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1569.63</t>
+          <t>3106.81</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>1905.48</t>
+          <t>2928.54</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1317.64</t>
+          <t>2660.09</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1063.16</t>
+          <t>2056.03</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1056.23</t>
+          <t>2046.55</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1476.78</t>
+          <t>2274.00</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1469.98</t>
+          <t>2279.69</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2219.02</t>
+          <t>3374.94</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1566.02</t>
+          <t>3118.76</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>1908.92</t>
+          <t>2940.73</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1315.57</t>
+          <t>2670.73</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1037.54</t>
+          <t>2064.08</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1030.90</t>
+          <t>2054.61</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1479.70</t>
+          <t>2284.44</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1472.91</t>
+          <t>2290.15</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2225.21</t>
+          <t>3392.66</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1568.34</t>
+          <t>3137.00</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>1915.94</t>
+          <t>2955.84</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1318.84</t>
+          <t>2687.62</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1040.88</t>
+          <t>2077.68</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1034.31</t>
+          <t>2068.07</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1487.36</t>
+          <t>2293.33</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1480.61</t>
+          <t>2298.96</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2315.78</t>
+          <t>3496.13</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1631.35</t>
+          <t>3238.27</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>1971.80</t>
+          <t>3044.82</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1357.97</t>
+          <t>2748.88</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1094.07</t>
+          <t>2185.77</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1087.43</t>
+          <t>2173.61</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1565.51</t>
+          <t>2356.19</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1558.59</t>
+          <t>2345.32</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3935.79</t>
+          <t>4238.01</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1922.12</t>
+          <t>3846.91</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3485.88</t>
+          <t>3730.72</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1627.90</t>
+          <t>3255.84</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1351.98</t>
+          <t>2656.71</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1349.97</t>
+          <t>2654.12</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2888.86</t>
+          <t>3089.23</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2892.17</t>
+          <t>3091.04</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>718.13</t>
+          <t>2978.31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>107.03</t>
+          <t>2828.11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>286.24</t>
+          <t>580.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106.47</t>
+          <t>2449.88</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>115.91</t>
+          <t>2024.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>115.74</t>
+          <t>2015.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1171.16</t>
+          <t>2167.33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1152.38</t>
+          <t>2161.55</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1803.62</t>
+          <t>3325.03</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>111.11</t>
+          <t>3147.63</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1459.68</t>
+          <t>2965.58</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>110.67</t>
+          <t>2652.14</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>232.41</t>
+          <t>2094.95</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>232.91</t>
+          <t>2082.92</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1637.00</t>
+          <t>2271.80</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1627.49</t>
+          <t>2279.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1871.24</t>
+          <t>3292.24</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>232.65</t>
+          <t>3131.65</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1359.28</t>
+          <t>2936.32</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>112.03</t>
+          <t>2642.55</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>304.81</t>
+          <t>2088.72</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>304.89</t>
+          <t>2076.61</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1621.57</t>
+          <t>2252.36</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1611.72</t>
+          <t>2260.47</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>1757.89</t>
+          <t>3302.70</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>151.46</t>
+          <t>3146.44</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1380.17</t>
+          <t>2942.62</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>111.74</t>
+          <t>2654.33</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>350.48</t>
+          <t>2094.39</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>350.35</t>
+          <t>2084.24</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1623.97</t>
+          <t>2252.04</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1614.13</t>
+          <t>2261.36</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1571.69</t>
+          <t>3305.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>111.27</t>
+          <t>3162.11</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1235.67</t>
+          <t>2945.65</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>110.86</t>
+          <t>2663.86</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>344.10</t>
+          <t>2097.81</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>343.93</t>
+          <t>2084.76</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1626.02</t>
+          <t>2253.88</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1616.28</t>
+          <t>2263.18</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1363.63</t>
+          <t>3320.01</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>110.20</t>
+          <t>3173.73</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>767.24</t>
+          <t>2948.03</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>109.82</t>
+          <t>2669.95</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>327.20</t>
+          <t>2110.81</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>327.03</t>
+          <t>2100.05</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1542.55</t>
+          <t>2257.06</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1480.61</t>
+          <t>2265.18</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>1145.61</t>
+          <t>3331.84</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>109.04</t>
+          <t>3187.48</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>542.71</t>
+          <t>2952.02</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>108.72</t>
+          <t>2680.52</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>302.01</t>
+          <t>2117.91</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>301.87</t>
+          <t>2107.16</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1331.11</t>
+          <t>2259.40</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1267.28</t>
+          <t>2271.99</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>927.36</t>
+          <t>3351.94</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>107.58</t>
+          <t>3206.20</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>318.78</t>
+          <t>2962.15</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>107.34</t>
+          <t>2694.91</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>263.01</t>
+          <t>2131.97</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>262.82</t>
+          <t>2120.77</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1109.44</t>
+          <t>2273.51</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1044.65</t>
+          <t>2279.85</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>1813.83</t>
+          <t>3468.79</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>105.37</t>
+          <t>3301.95</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1608.47</t>
+          <t>3046.36</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>105.27</t>
+          <t>2748.59</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>195.67</t>
+          <t>2220.18</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>195.08</t>
+          <t>2209.40</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1085.97</t>
+          <t>2330.15</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1026.31</t>
+          <t>2322.61</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>2054.32</t>
+          <t>4219.95</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>145.42</t>
+          <t>3952.20</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>1821.00</t>
+          <t>3735.84</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>142.28</t>
+          <t>3368.13</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>262.01</t>
+          <t>2691.69</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>262.58</t>
+          <t>2684.69</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1424.62</t>
+          <t>3081.49</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1426.83</t>
+          <t>3085.32</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1965.93</t>
+          <t>3001.50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1736.97</t>
+          <t>2841.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>289.78</t>
+          <t>397.30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1441.60</t>
+          <t>2457.85</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1240.37</t>
+          <t>2041.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1235.44</t>
+          <t>2031.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1331.68</t>
+          <t>2126.31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1340.07</t>
+          <t>2128.63</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2365.22</t>
+          <t>3356.53</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2084.98</t>
+          <t>3179.97</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2033.47</t>
+          <t>2931.21</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1690.58</t>
+          <t>2684.46</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1299.33</t>
+          <t>2114.25</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1293.48</t>
+          <t>2104.63</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1451.05</t>
+          <t>2230.23</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1448.64</t>
+          <t>2238.88</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2360.63</t>
+          <t>3324.35</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2091.79</t>
+          <t>3172.08</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1988.43</t>
+          <t>2895.96</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1691.85</t>
+          <t>2688.70</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1289.19</t>
+          <t>2092.96</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1283.54</t>
+          <t>2082.81</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1446.08</t>
+          <t>2207.31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1445.31</t>
+          <t>2214.10</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2359.16</t>
+          <t>3333.12</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2099.22</t>
+          <t>3167.47</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1986.59</t>
+          <t>2925.95</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1701.77</t>
+          <t>2719.56</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1291.71</t>
+          <t>2100.10</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1286.12</t>
+          <t>2088.97</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1447.17</t>
+          <t>2220.55</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1442.97</t>
+          <t>2227.34</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2339.06</t>
+          <t>3342.50</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2104.88</t>
+          <t>3168.92</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1982.55</t>
+          <t>2935.03</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1710.58</t>
+          <t>2718.78</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1293.52</t>
+          <t>2118.70</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1287.93</t>
+          <t>2105.90</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1439.11</t>
+          <t>2227.16</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1437.18</t>
+          <t>2234.06</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2336.69</t>
+          <t>3356.35</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2109.33</t>
+          <t>3181.43</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1976.27</t>
+          <t>2942.61</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1715.94</t>
+          <t>2718.83</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1294.68</t>
+          <t>2136.87</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1289.08</t>
+          <t>2132.36</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1434.43</t>
+          <t>2237.43</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1429.20</t>
+          <t>2246.12</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2335.67</t>
+          <t>3367.81</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2102.31</t>
+          <t>3200.72</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1971.03</t>
+          <t>2951.23</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1720.05</t>
+          <t>2716.03</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1297.00</t>
+          <t>2119.33</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1291.48</t>
+          <t>2104.96</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1433.36</t>
+          <t>2245.57</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1429.87</t>
+          <t>2252.45</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2344.59</t>
+          <t>3387.24</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2116.70</t>
+          <t>3217.95</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1974.15</t>
+          <t>2968.36</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1735.12</t>
+          <t>2728.32</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1305.12</t>
+          <t>2138.57</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1299.63</t>
+          <t>2128.52</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1443.11</t>
+          <t>2255.08</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1441.14</t>
+          <t>2264.69</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2446.12</t>
+          <t>3492.87</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2236.73</t>
+          <t>3339.17</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2056.35</t>
+          <t>3057.72</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1809.17</t>
+          <t>2799.97</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1371.12</t>
+          <t>2267.71</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1366.32</t>
+          <t>2256.08</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1539.53</t>
+          <t>2321.43</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1533.69</t>
+          <t>2307.81</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3138.72</t>
+          <t>4258.77</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2856.70</t>
+          <t>4080.82</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2714.63</t>
+          <t>3767.92</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2338.52</t>
+          <t>3383.79</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1805.96</t>
+          <t>2728.64</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1806.54</t>
+          <t>2729.93</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2182.78</t>
+          <t>3077.81</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2187.73</t>
+          <t>3080.97</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2041.66</t>
+          <t>2952.45</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2011.49</t>
+          <t>2825.69</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>230.36</t>
+          <t>565.38</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1689.60</t>
+          <t>2473.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1396.86</t>
+          <t>2051.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1392.69</t>
+          <t>2043.08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1441.51</t>
+          <t>2099.66</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1465.90</t>
+          <t>2103.33</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2404.50</t>
+          <t>3280.93</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2346.79</t>
+          <t>3129.12</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2161.15</t>
+          <t>2874.30</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1964.67</t>
+          <t>2676.18</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1526.84</t>
+          <t>2115.52</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1521.60</t>
+          <t>2105.35</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1571.13</t>
+          <t>2197.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1571.51</t>
+          <t>2209.56</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2381.33</t>
+          <t>3246.21</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2324.47</t>
+          <t>3104.07</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2057.25</t>
+          <t>2852.10</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1960.94</t>
+          <t>2674.17</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1519.94</t>
+          <t>2083.88</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1515.13</t>
+          <t>2073.79</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1561.27</t>
+          <t>2169.77</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1557.70</t>
+          <t>2176.03</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2382.66</t>
+          <t>3252.94</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2321.13</t>
+          <t>3113.48</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2054.21</t>
+          <t>2843.64</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1965.88</t>
+          <t>2679.15</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1524.31</t>
+          <t>2082.18</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1519.57</t>
+          <t>2072.19</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1564.65</t>
+          <t>2174.68</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1560.28</t>
+          <t>2180.78</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2327.51</t>
+          <t>3263.16</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2249.32</t>
+          <t>3125.94</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1992.78</t>
+          <t>2865.24</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1908.71</t>
+          <t>2704.55</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1508.51</t>
+          <t>2088.94</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1501.43</t>
+          <t>2078.93</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1538.42</t>
+          <t>2182.81</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1534.59</t>
+          <t>2188.80</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2334.99</t>
+          <t>3272.83</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2249.43</t>
+          <t>3137.45</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1993.20</t>
+          <t>2892.71</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1909.54</t>
+          <t>2715.02</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1508.52</t>
+          <t>2095.04</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1501.45</t>
+          <t>2085.18</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1539.63</t>
+          <t>2192.91</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1535.79</t>
+          <t>2196.13</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2342.66</t>
+          <t>3282.57</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2250.49</t>
+          <t>3149.25</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1994.51</t>
+          <t>2915.73</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1911.31</t>
+          <t>2725.98</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1510.13</t>
+          <t>2112.37</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1503.04</t>
+          <t>2102.49</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1541.62</t>
+          <t>2213.84</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1537.63</t>
+          <t>2217.39</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2319.36</t>
+          <t>3297.51</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2258.66</t>
+          <t>3169.96</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2002.71</t>
+          <t>2944.17</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1919.89</t>
+          <t>2745.92</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1521.00</t>
+          <t>2129.30</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1514.02</t>
+          <t>2119.47</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1550.01</t>
+          <t>2229.17</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1545.99</t>
+          <t>2235.90</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2404.65</t>
+          <t>3395.06</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2343.24</t>
+          <t>3266.42</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2053.98</t>
+          <t>3036.05</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1970.84</t>
+          <t>2800.27</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1593.54</t>
+          <t>2219.98</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1586.66</t>
+          <t>2210.10</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1619.72</t>
+          <t>2286.46</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1615.75</t>
+          <t>2283.36</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2895.13</t>
+          <t>4038.71</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2820.56</t>
+          <t>3896.56</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2529.27</t>
+          <t>3677.40</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2371.91</t>
+          <t>3367.97</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1892.10</t>
+          <t>2677.57</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1885.85</t>
+          <t>2665.28</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2039.90</t>
+          <t>2974.26</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2043.33</t>
+          <t>2984.95</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2386.44</t>
+          <t>2876.90</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2371.50</t>
+          <t>2787.42</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>204.13</t>
+          <t>1197.15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1989.78</t>
+          <t>2491.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1638.63</t>
+          <t>2025.16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1631.50</t>
+          <t>2016.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1649.91</t>
+          <t>2090.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1665.22</t>
+          <t>2066.14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2729.48</t>
+          <t>3216.66</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2683.05</t>
+          <t>3107.52</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2345.38</t>
+          <t>2905.18</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2211.68</t>
+          <t>2697.54</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1707.24</t>
+          <t>2082.07</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1698.54</t>
+          <t>2071.95</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1722.46</t>
+          <t>2184.83</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1720.68</t>
+          <t>2190.30</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2694.29</t>
+          <t>3180.82</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2649.95</t>
+          <t>3070.95</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2267.60</t>
+          <t>2831.27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2188.70</t>
+          <t>2677.57</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1691.22</t>
+          <t>2065.45</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1682.69</t>
+          <t>2055.70</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1697.53</t>
+          <t>2136.18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1691.31</t>
+          <t>2148.97</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2692.32</t>
+          <t>3194.32</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2647.38</t>
+          <t>3081.19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2261.06</t>
+          <t>2841.09</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2188.41</t>
+          <t>2687.45</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1689.50</t>
+          <t>2071.72</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1681.09</t>
+          <t>2061.66</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1696.58</t>
+          <t>2154.01</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1689.18</t>
+          <t>2161.06</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2693.12</t>
+          <t>3219.57</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2647.63</t>
+          <t>3094.26</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2262.38</t>
+          <t>2858.26</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2190.15</t>
+          <t>2701.72</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1689.13</t>
+          <t>2083.64</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1680.89</t>
+          <t>2073.01</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1697.06</t>
+          <t>2160.91</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1689.30</t>
+          <t>2166.47</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2655.72</t>
+          <t>3232.94</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2617.69</t>
+          <t>3097.00</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2238.04</t>
+          <t>2881.53</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2185.49</t>
+          <t>2714.64</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1681.68</t>
+          <t>2094.60</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1674.20</t>
+          <t>2083.32</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1681.73</t>
+          <t>2167.79</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1674.69</t>
+          <t>2173.65</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2657.11</t>
+          <t>3249.17</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2623.58</t>
+          <t>3111.62</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2244.10</t>
+          <t>2895.23</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2191.38</t>
+          <t>2727.15</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1685.65</t>
+          <t>2105.39</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1677.97</t>
+          <t>2093.97</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1685.36</t>
+          <t>2176.22</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1678.20</t>
+          <t>2181.95</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2665.46</t>
+          <t>3250.89</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2636.45</t>
+          <t>3131.62</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2256.41</t>
+          <t>2914.44</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2203.53</t>
+          <t>2745.39</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1695.77</t>
+          <t>2122.62</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1688.01</t>
+          <t>2112.64</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1691.07</t>
+          <t>2193.29</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1687.48</t>
+          <t>2200.71</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2762.73</t>
+          <t>3343.92</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2746.90</t>
+          <t>3226.96</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2317.15</t>
+          <t>3006.97</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2264.20</t>
+          <t>2802.26</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1776.45</t>
+          <t>2213.53</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1768.06</t>
+          <t>2203.36</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1776.61</t>
+          <t>2264.14</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1768.74</t>
+          <t>2254.84</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3370.00</t>
+          <t>3938.64</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3296.22</t>
+          <t>3818.54</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2857.04</t>
+          <t>3588.64</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2730.02</t>
+          <t>3297.56</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2157.21</t>
+          <t>2619.28</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2154.21</t>
+          <t>2618.26</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2318.76</t>
+          <t>2885.86</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2319.30</t>
+          <t>2890.67</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1887.70</t>
+          <t>2871.67</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1976.69</t>
+          <t>2775.47</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>279.55</t>
+          <t>852.99</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1698.56</t>
+          <t>2394.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1378.87</t>
+          <t>2003.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1371.91</t>
+          <t>1995.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1352.50</t>
+          <t>2054.44</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1391.80</t>
+          <t>2045.97</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2221.08</t>
+          <t>3163.45</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2343.37</t>
+          <t>3057.09</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2074.96</t>
+          <t>2820.58</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1921.57</t>
+          <t>2590.87</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1450.17</t>
+          <t>2057.37</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1441.47</t>
+          <t>2047.22</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1443.65</t>
+          <t>2133.58</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1447.47</t>
+          <t>2140.10</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2217.26</t>
+          <t>3137.79</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2328.14</t>
+          <t>3035.13</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1909.43</t>
+          <t>2770.13</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1894.02</t>
+          <t>2561.61</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1421.73</t>
+          <t>2033.88</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1416.06</t>
+          <t>2023.76</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1423.98</t>
+          <t>2108.67</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1419.76</t>
+          <t>2114.40</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2217.78</t>
+          <t>3148.50</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2328.19</t>
+          <t>3045.51</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1883.11</t>
+          <t>2780.19</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1895.90</t>
+          <t>2570.57</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1422.92</t>
+          <t>2042.11</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1417.22</t>
+          <t>2032.09</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1424.65</t>
+          <t>2115.46</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1418.74</t>
+          <t>2121.05</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2218.25</t>
+          <t>3163.73</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2330.16</t>
+          <t>3059.61</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1883.53</t>
+          <t>2795.64</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1901.28</t>
+          <t>2583.39</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1427.05</t>
+          <t>2052.99</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1419.94</t>
+          <t>2043.00</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1427.91</t>
+          <t>2125.39</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1421.71</t>
+          <t>2130.93</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2218.92</t>
+          <t>3178.55</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2332.18</t>
+          <t>3078.24</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1885.48</t>
+          <t>2807.45</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1906.53</t>
+          <t>2627.76</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1431.60</t>
+          <t>2063.00</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1423.84</t>
+          <t>2053.07</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1431.29</t>
+          <t>2134.62</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1425.06</t>
+          <t>2140.11</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2223.60</t>
+          <t>3192.86</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2338.19</t>
+          <t>3094.96</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1888.54</t>
+          <t>2821.50</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1912.17</t>
+          <t>2639.51</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1436.67</t>
+          <t>2072.83</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1428.99</t>
+          <t>2062.94</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1435.41</t>
+          <t>2143.84</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1429.18</t>
+          <t>2149.31</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2234.81</t>
+          <t>3213.11</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2349.79</t>
+          <t>3116.99</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1897.39</t>
+          <t>2843.66</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1923.52</t>
+          <t>2658.15</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1454.40</t>
+          <t>2089.20</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1447.76</t>
+          <t>2079.36</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1454.66</t>
+          <t>2158.87</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1448.40</t>
+          <t>2164.77</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2299.32</t>
+          <t>3327.73</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2433.81</t>
+          <t>3215.74</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1959.40</t>
+          <t>2936.68</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1980.83</t>
+          <t>2721.30</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1528.15</t>
+          <t>2177.33</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1519.74</t>
+          <t>2167.45</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1524.38</t>
+          <t>2242.27</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1518.08</t>
+          <t>2231.26</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2739.15</t>
+          <t>3865.77</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2951.17</t>
+          <t>3757.50</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2352.96</t>
+          <t>3487.32</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2389.61</t>
+          <t>3224.16</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1923.21</t>
+          <t>2578.83</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1921.89</t>
+          <t>2577.48</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1956.06</t>
+          <t>2876.15</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1957.86</t>
+          <t>2880.78</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1972.38</t>
+          <t>2824.99</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2095.28</t>
+          <t>2752.34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>397.71</t>
+          <t>1109.20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1759.42</t>
+          <t>2420.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1423.64</t>
+          <t>1993.29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1416.92</t>
+          <t>1984.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1406.91</t>
+          <t>2042.50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1444.86</t>
+          <t>2037.24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2288.16</t>
+          <t>3115.16</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2386.56</t>
+          <t>3012.06</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2111.84</t>
+          <t>2781.82</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1936.39</t>
+          <t>2600.66</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1481.94</t>
+          <t>2041.48</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1473.64</t>
+          <t>2031.53</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1482.91</t>
+          <t>2118.00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1484.60</t>
+          <t>2126.55</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2268.68</t>
+          <t>3071.34</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2353.09</t>
+          <t>2973.98</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1892.78</t>
+          <t>2715.94</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1929.00</t>
+          <t>2567.91</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1456.34</t>
+          <t>2028.09</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1450.36</t>
+          <t>2018.08</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1458.36</t>
+          <t>2094.86</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1454.41</t>
+          <t>2099.39</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2266.87</t>
+          <t>3082.57</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2355.46</t>
+          <t>2982.53</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1866.14</t>
+          <t>2725.62</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1932.07</t>
+          <t>2578.73</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1458.80</t>
+          <t>2034.16</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1453.49</t>
+          <t>2024.23</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1460.86</t>
+          <t>2105.77</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1455.64</t>
+          <t>2112.69</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2266.61</t>
+          <t>3096.72</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2361.26</t>
+          <t>2996.74</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1865.03</t>
+          <t>2737.54</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1934.58</t>
+          <t>2592.21</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1464.47</t>
+          <t>2043.52</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1459.05</t>
+          <t>2033.63</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1466.08</t>
+          <t>2116.72</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1460.59</t>
+          <t>2122.38</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2266.62</t>
+          <t>3109.63</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2366.88</t>
+          <t>3009.71</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1866.88</t>
+          <t>2748.36</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1937.50</t>
+          <t>2604.49</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1470.24</t>
+          <t>2052.35</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1464.35</t>
+          <t>2042.48</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1471.31</t>
+          <t>2125.34</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1465.80</t>
+          <t>2130.97</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2267.20</t>
+          <t>3122.09</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2372.81</t>
+          <t>3022.23</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1869.44</t>
+          <t>2760.82</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1939.92</t>
+          <t>2616.45</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1476.18</t>
+          <t>2061.32</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1470.31</t>
+          <t>2051.47</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1476.84</t>
+          <t>2134.18</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1471.33</t>
+          <t>2139.80</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2272.59</t>
+          <t>3140.15</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2384.91</t>
+          <t>3040.51</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1876.35</t>
+          <t>2780.94</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1944.64</t>
+          <t>2633.91</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1487.55</t>
+          <t>2076.99</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1481.69</t>
+          <t>2067.19</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1487.76</t>
+          <t>2148.92</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1482.25</t>
+          <t>2154.53</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2343.17</t>
+          <t>3232.92</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2469.54</t>
+          <t>3137.72</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1940.34</t>
+          <t>2873.57</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1997.95</t>
+          <t>2689.80</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1563.75</t>
+          <t>2165.72</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1557.83</t>
+          <t>2155.89</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1563.64</t>
+          <t>2211.74</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1558.09</t>
+          <t>2202.37</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2810.15</t>
+          <t>3758.35</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2931.23</t>
+          <t>3638.27</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2281.32</t>
+          <t>3400.87</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2367.12</t>
+          <t>3138.92</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1948.55</t>
+          <t>2551.83</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1948.61</t>
+          <t>2551.00</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1966.85</t>
+          <t>2799.39</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1957.80</t>
+          <t>2803.98</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2148.43</t>
+          <t>2677.30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2104.00</t>
+          <t>2597.35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>594.80</t>
+          <t>1315.48</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1770.06</t>
+          <t>2254.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1394.01</t>
+          <t>1820.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1390.94</t>
+          <t>1811.59</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1470.72</t>
+          <t>1878.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1511.62</t>
+          <t>1879.19</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2384.61</t>
+          <t>2992.98</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2327.20</t>
+          <t>2893.87</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2155.75</t>
+          <t>2659.41</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1913.43</t>
+          <t>2453.79</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1443.57</t>
+          <t>1890.69</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1436.32</t>
+          <t>1880.74</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1514.26</t>
+          <t>1966.29</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1520.38</t>
+          <t>1973.85</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2339.08</t>
+          <t>2968.29</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2285.82</t>
+          <t>2871.85</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1972.21</t>
+          <t>2602.06</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1875.27</t>
+          <t>2441.96</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1411.84</t>
+          <t>1865.98</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1404.71</t>
+          <t>1856.19</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1475.71</t>
+          <t>1936.60</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1469.54</t>
+          <t>1942.77</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2332.49</t>
+          <t>2987.34</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2280.81</t>
+          <t>2896.63</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1960.19</t>
+          <t>2616.76</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1873.98</t>
+          <t>2460.52</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1410.97</t>
+          <t>1875.10</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1403.85</t>
+          <t>1866.49</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1472.32</t>
+          <t>1948.09</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1465.29</t>
+          <t>1953.30</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2331.61</t>
+          <t>3013.70</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2281.03</t>
+          <t>2922.94</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1962.39</t>
+          <t>2635.94</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1877.63</t>
+          <t>2485.17</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1414.22</t>
+          <t>1886.21</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1407.17</t>
+          <t>1875.39</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1473.90</t>
+          <t>1957.65</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1466.77</t>
+          <t>1963.44</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2333.74</t>
+          <t>3044.58</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2282.04</t>
+          <t>2948.18</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1965.96</t>
+          <t>2656.32</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1881.60</t>
+          <t>2501.30</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1417.83</t>
+          <t>1899.93</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1410.80</t>
+          <t>1889.34</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1476.14</t>
+          <t>1970.24</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1469.02</t>
+          <t>1976.09</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2334.44</t>
+          <t>3069.56</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2283.77</t>
+          <t>2970.65</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1970.33</t>
+          <t>2673.87</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1886.21</t>
+          <t>2523.29</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1422.17</t>
+          <t>1910.84</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1415.16</t>
+          <t>1901.36</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1479.27</t>
+          <t>1980.66</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1472.17</t>
+          <t>1985.90</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2340.32</t>
+          <t>3090.85</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2290.25</t>
+          <t>2994.85</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1980.57</t>
+          <t>2693.85</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1896.71</t>
+          <t>2543.40</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1432.79</t>
+          <t>1931.61</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1425.81</t>
+          <t>1922.23</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1488.89</t>
+          <t>2000.08</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1481.83</t>
+          <t>2005.39</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2405.39</t>
+          <t>3190.42</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2353.05</t>
+          <t>3095.54</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2036.33</t>
+          <t>2790.68</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1952.23</t>
+          <t>2608.15</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1507.08</t>
+          <t>2024.04</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1500.06</t>
+          <t>2013.73</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1566.40</t>
+          <t>2069.80</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1559.30</t>
+          <t>2060.62</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2876.80</t>
+          <t>3779.80</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2827.55</t>
+          <t>3662.73</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2395.30</t>
+          <t>3342.51</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2352.04</t>
+          <t>3102.22</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1882.98</t>
+          <t>2434.83</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1881.81</t>
+          <t>2432.84</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2043.95</t>
+          <t>2656.52</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2045.61</t>
+          <t>2660.60</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2159.72</t>
+          <t>2885.30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2091.60</t>
+          <t>2816.09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>662.94</t>
+          <t>1146.51</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1813.20</t>
+          <t>2449.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1496.61</t>
+          <t>2028.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1490.99</t>
+          <t>2018.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1530.45</t>
+          <t>2099.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1569.70</t>
+          <t>2092.24</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2393.74</t>
+          <t>3180.67</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2231.39</t>
+          <t>3087.43</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2207.05</t>
+          <t>2809.93</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1899.47</t>
+          <t>2648.95</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1500.01</t>
+          <t>2074.41</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1493.25</t>
+          <t>2062.65</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1549.12</t>
+          <t>2164.72</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1567.96</t>
+          <t>2173.72</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2350.51</t>
+          <t>3149.25</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2191.05</t>
+          <t>3064.51</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2030.78</t>
+          <t>2761.21</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1866.75</t>
+          <t>2626.75</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1468.90</t>
+          <t>2040.78</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1462.29</t>
+          <t>2029.09</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1511.23</t>
+          <t>2128.98</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1505.55</t>
+          <t>2135.94</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2347.08</t>
+          <t>3165.54</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2193.24</t>
+          <t>3080.54</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1984.25</t>
+          <t>2775.49</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1869.85</t>
+          <t>2638.47</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1469.97</t>
+          <t>2046.62</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1463.41</t>
+          <t>2035.02</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1508.07</t>
+          <t>2133.03</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1500.82</t>
+          <t>2139.53</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2348.99</t>
+          <t>3183.90</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2200.42</t>
+          <t>3098.90</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1981.77</t>
+          <t>2792.94</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1877.44</t>
+          <t>2653.31</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1475.33</t>
+          <t>2056.71</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1468.78</t>
+          <t>2045.15</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1509.79</t>
+          <t>2141.90</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1502.40</t>
+          <t>2148.31</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2351.48</t>
+          <t>3200.47</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2207.56</t>
+          <t>3115.66</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1984.45</t>
+          <t>2808.83</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1884.84</t>
+          <t>2666.63</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1480.87</t>
+          <t>2066.33</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1474.33</t>
+          <t>2054.80</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1512.15</t>
+          <t>2150.24</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1504.73</t>
+          <t>2156.67</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2354.54</t>
+          <t>3216.20</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2215.02</t>
+          <t>3131.79</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1988.13</t>
+          <t>2823.97</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1892.51</t>
+          <t>2679.40</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1486.91</t>
+          <t>2076.18</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1480.40</t>
+          <t>2064.67</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1515.33</t>
+          <t>2160.30</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1509.09</t>
+          <t>2166.62</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2361.86</t>
+          <t>3237.42</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2229.21</t>
+          <t>3154.13</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1996.06</t>
+          <t>2844.28</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1906.21</t>
+          <t>2698.66</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1499.52</t>
+          <t>2094.00</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1493.04</t>
+          <t>2082.55</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1527.34</t>
+          <t>2177.60</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1521.35</t>
+          <t>2183.93</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2424.69</t>
+          <t>3335.01</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2306.78</t>
+          <t>3252.74</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2057.67</t>
+          <t>2937.06</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1952.72</t>
+          <t>2762.42</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1569.92</t>
+          <t>2194.96</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1563.35</t>
+          <t>2183.34</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1601.25</t>
+          <t>2257.56</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1593.82</t>
+          <t>2246.44</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2794.45</t>
+          <t>3888.46</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2618.10</t>
+          <t>3770.43</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2435.56</t>
+          <t>3474.88</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2134.59</t>
+          <t>3253.29</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1825.85</t>
+          <t>2614.44</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1813.54</t>
+          <t>2614.09</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1998.92</t>
+          <t>2867.64</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1986.36</t>
+          <t>2871.98</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2699.73</t>
+          <t>3023.39</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2432.06</t>
+          <t>2841.27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>811.46</t>
+          <t>1241.09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2077.99</t>
+          <t>2483.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1696.65</t>
+          <t>2035.93</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1690.72</t>
+          <t>2026.29</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1845.46</t>
+          <t>2193.69</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1852.36</t>
+          <t>2189.65</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3001.39</t>
+          <t>3311.13</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2710.47</t>
+          <t>3143.18</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2605.17</t>
+          <t>2977.59</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2263.37</t>
+          <t>2668.76</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1767.30</t>
+          <t>2104.43</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1751.83</t>
+          <t>2092.58</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1908.52</t>
+          <t>2277.37</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1904.58</t>
+          <t>2288.13</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2944.06</t>
+          <t>3273.15</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2715.48</t>
+          <t>3107.51</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2514.31</t>
+          <t>2919.86</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2244.00</t>
+          <t>2667.07</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1764.67</t>
+          <t>2077.21</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1758.32</t>
+          <t>2067.11</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1872.54</t>
+          <t>2232.23</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1869.18</t>
+          <t>2242.44</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2935.69</t>
+          <t>3285.56</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2727.21</t>
+          <t>3114.53</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2508.89</t>
+          <t>2924.14</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2255.01</t>
+          <t>2673.67</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1771.01</t>
+          <t>2081.62</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1765.85</t>
+          <t>2071.96</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1872.12</t>
+          <t>2240.34</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1863.76</t>
+          <t>2246.26</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2936.59</t>
+          <t>3300.90</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2729.91</t>
+          <t>3125.39</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2519.12</t>
+          <t>2938.09</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2270.72</t>
+          <t>2681.55</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1771.67</t>
+          <t>2089.72</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1767.80</t>
+          <t>2079.79</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1883.80</t>
+          <t>2253.71</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1872.71</t>
+          <t>2259.41</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2938.86</t>
+          <t>3312.79</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2728.04</t>
+          <t>3135.68</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2531.85</t>
+          <t>2952.17</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2285.33</t>
+          <t>2691.51</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1769.84</t>
+          <t>2105.51</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1767.22</t>
+          <t>2094.35</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1901.86</t>
+          <t>2256.06</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1884.01</t>
+          <t>2262.20</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2947.12</t>
+          <t>3326.13</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2723.75</t>
+          <t>3145.18</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2543.12</t>
+          <t>2965.72</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2299.75</t>
+          <t>2701.50</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1767.66</t>
+          <t>2134.83</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1765.27</t>
+          <t>2123.57</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1912.87</t>
+          <t>2257.85</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1904.65</t>
+          <t>2263.42</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2962.06</t>
+          <t>3344.89</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2731.32</t>
+          <t>3161.86</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2561.20</t>
+          <t>2984.56</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2319.01</t>
+          <t>2716.85</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1775.99</t>
+          <t>2159.12</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1770.47</t>
+          <t>2147.90</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1928.63</t>
+          <t>2268.31</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1921.08</t>
+          <t>2274.08</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3060.28</t>
+          <t>3436.46</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2814.89</t>
+          <t>3258.83</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2620.35</t>
+          <t>3074.04</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2374.04</t>
+          <t>2775.40</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1849.51</t>
+          <t>2253.93</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1849.37</t>
+          <t>2243.90</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2023.85</t>
+          <t>2330.29</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2011.11</t>
+          <t>2320.54</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3795.84</t>
+          <t>4137.72</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3439.77</t>
+          <t>3869.22</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3304.35</t>
+          <t>3765.80</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2978.14</t>
+          <t>3342.77</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2284.38</t>
+          <t>2669.29</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2301.32</t>
+          <t>2668.16</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2660.24</t>
+          <t>3046.82</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2674.77</t>
+          <t>3053.59</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2849.70</t>
+          <t>3077.83</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2369.24</t>
+          <t>2861.26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>690.35</t>
+          <t>840.55</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1960.06</t>
+          <t>2484.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1600.28</t>
+          <t>2075.61</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1594.95</t>
+          <t>2065.91</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1963.92</t>
+          <t>2197.02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1956.71</t>
+          <t>2189.13</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3188.56</t>
+          <t>3427.42</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2570.29</t>
+          <t>3150.12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2688.16</t>
+          <t>2995.30</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2091.04</t>
+          <t>2686.77</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1623.29</t>
+          <t>2130.02</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1616.20</t>
+          <t>2118.47</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2027.19</t>
+          <t>2297.24</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2017.61</t>
+          <t>2296.03</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3157.49</t>
+          <t>3391.91</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2650.52</t>
+          <t>3114.46</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2651.95</t>
+          <t>2938.88</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2030.49</t>
+          <t>2670.52</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1593.39</t>
+          <t>2103.41</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1585.00</t>
+          <t>2091.75</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2136.02</t>
+          <t>2268.68</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2126.67</t>
+          <t>2272.32</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3162.17</t>
+          <t>3400.42</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2662.30</t>
+          <t>3125.83</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2710.54</t>
+          <t>2949.05</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2247.46</t>
+          <t>2679.60</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1591.29</t>
+          <t>2108.74</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1582.92</t>
+          <t>2097.30</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2111.84</t>
+          <t>2273.69</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2102.29</t>
+          <t>2277.57</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3168.60</t>
+          <t>3414.22</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2671.04</t>
+          <t>3141.99</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2675.97</t>
+          <t>2964.63</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2257.49</t>
+          <t>2692.59</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1762.81</t>
+          <t>2122.46</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1584.12</t>
+          <t>2112.85</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2115.15</t>
+          <t>2282.09</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2105.58</t>
+          <t>2291.04</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3169.81</t>
+          <t>3428.55</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2680.43</t>
+          <t>3158.53</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2686.10</t>
+          <t>2978.44</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2264.54</t>
+          <t>2703.48</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1767.38</t>
+          <t>2138.38</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1759.46</t>
+          <t>2125.19</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2118.47</t>
+          <t>2297.09</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2108.87</t>
+          <t>2300.49</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3172.26</t>
+          <t>3443.09</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2690.23</t>
+          <t>3176.65</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2695.43</t>
+          <t>2993.53</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2273.87</t>
+          <t>2713.17</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1775.46</t>
+          <t>2150.69</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1766.73</t>
+          <t>2139.97</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2122.32</t>
+          <t>2305.84</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2112.70</t>
+          <t>2309.10</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3191.03</t>
+          <t>3463.21</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2706.32</t>
+          <t>3208.23</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2713.80</t>
+          <t>3013.29</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2289.51</t>
+          <t>2735.84</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1790.57</t>
+          <t>2166.85</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1781.86</t>
+          <t>2156.98</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2132.32</t>
+          <t>2321.63</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2122.79</t>
+          <t>2331.86</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3306.45</t>
+          <t>3571.70</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2810.14</t>
+          <t>3319.70</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2784.43</t>
+          <t>3112.20</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2353.26</t>
+          <t>2803.24</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1883.04</t>
+          <t>2267.85</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1874.26</t>
+          <t>2256.12</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2196.88</t>
+          <t>2400.43</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2187.14</t>
+          <t>2392.90</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4013.12</t>
+          <t>4338.39</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3115.44</t>
+          <t>4011.72</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3440.99</t>
+          <t>3869.60</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2575.69</t>
+          <t>3379.19</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2015.24</t>
+          <t>2714.16</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2015.10</t>
+          <t>2718.10</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2782.39</t>
+          <t>3175.49</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2785.31</t>
+          <t>3183.40</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2554.05</t>
+          <t>3053.49</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2235.79</t>
+          <t>2733.56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>408.41</t>
+          <t>612.56</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1915.63</t>
+          <t>2369.82</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1602.77</t>
+          <t>1982.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1595.38</t>
+          <t>1968.39</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1858.32</t>
+          <t>2170.12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1884.44</t>
+          <t>2160.19</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2578.07</t>
+          <t>3425.32</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2405.38</t>
+          <t>3067.74</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2461.59</t>
+          <t>2968.71</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1750.33</t>
+          <t>2593.41</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1648.35</t>
+          <t>2033.63</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1639.47</t>
+          <t>2023.24</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1892.67</t>
+          <t>2258.22</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1886.97</t>
+          <t>2261.87</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2539.59</t>
+          <t>3399.31</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2387.28</t>
+          <t>3054.46</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2414.39</t>
+          <t>2934.86</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1685.56</t>
+          <t>2587.67</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1623.50</t>
+          <t>2081.09</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1614.69</t>
+          <t>2071.08</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1861.91</t>
+          <t>2227.63</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1853.87</t>
+          <t>2233.06</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2808.11</t>
+          <t>3413.25</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2392.90</t>
+          <t>3078.35</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2401.16</t>
+          <t>2944.67</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2033.05</t>
+          <t>2598.56</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1623.93</t>
+          <t>2085.77</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1615.15</t>
+          <t>2075.85</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1861.70</t>
+          <t>2234.66</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1853.33</t>
+          <t>2237.29</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2908.85</t>
+          <t>3426.32</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2399.30</t>
+          <t>3092.72</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2197.57</t>
+          <t>2955.63</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2034.81</t>
+          <t>2616.96</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1594.61</t>
+          <t>2094.82</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1582.67</t>
+          <t>2084.92</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2146.03</t>
+          <t>2242.80</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2135.74</t>
+          <t>2250.30</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2875.12</t>
+          <t>3434.22</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2405.02</t>
+          <t>3104.69</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2185.51</t>
+          <t>2971.14</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2040.72</t>
+          <t>2636.03</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1594.67</t>
+          <t>2103.23</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1586.96</t>
+          <t>2093.33</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2113.25</t>
+          <t>2250.42</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2103.31</t>
+          <t>2257.84</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2650.44</t>
+          <t>3447.50</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2411.11</t>
+          <t>3116.28</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2190.13</t>
+          <t>2982.87</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2047.16</t>
+          <t>2654.23</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1599.57</t>
+          <t>2111.36</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1591.86</t>
+          <t>2101.50</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2116.61</t>
+          <t>2254.41</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2106.70</t>
+          <t>2261.75</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2554.43</t>
+          <t>3464.45</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2425.01</t>
+          <t>3128.11</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2200.07</t>
+          <t>3000.14</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2061.03</t>
+          <t>2683.92</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1611.94</t>
+          <t>2125.73</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1604.30</t>
+          <t>2115.93</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2123.23</t>
+          <t>2281.92</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2113.39</t>
+          <t>2288.87</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2612.31</t>
+          <t>3561.74</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2526.73</t>
+          <t>3220.98</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2227.25</t>
+          <t>3097.13</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2128.90</t>
+          <t>2741.99</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1701.02</t>
+          <t>2209.80</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1693.76</t>
+          <t>2199.97</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2173.32</t>
+          <t>2373.49</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2163.83</t>
+          <t>2362.81</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3875.43</t>
+          <t>4302.33</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2668.43</t>
+          <t>3811.90</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2822.71</t>
+          <t>3807.62</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2092.66</t>
+          <t>3206.18</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1659.07</t>
+          <t>2629.55</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1653.08</t>
+          <t>2631.77</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2780.56</t>
+          <t>3146.31</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2782.74</t>
+          <t>3155.56</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>718.13</t>
+          <t>2677.30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>107.03</t>
+          <t>2597.35</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>204.13</t>
+          <t>397.30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106.47</t>
+          <t>2254.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>115.91</t>
+          <t>1820.61</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>115.74</t>
+          <t>1811.59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1171.16</t>
+          <t>1878.56</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1152.38</t>
+          <t>1879.19</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1803.62</t>
+          <t>2992.98</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>111.11</t>
+          <t>2893.87</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1459.68</t>
+          <t>2659.41</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>110.67</t>
+          <t>2453.79</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>232.41</t>
+          <t>1890.69</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>232.91</t>
+          <t>1880.74</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1443.65</t>
+          <t>1966.29</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1447.47</t>
+          <t>1973.85</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1871.24</t>
+          <t>2968.29</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>232.65</t>
+          <t>2871.85</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1359.28</t>
+          <t>2602.06</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>112.03</t>
+          <t>2441.96</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>304.81</t>
+          <t>1865.98</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>304.89</t>
+          <t>1856.19</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1423.98</t>
+          <t>1936.60</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1419.76</t>
+          <t>1942.77</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1757.89</t>
+          <t>2987.34</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>151.46</t>
+          <t>2896.63</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1380.17</t>
+          <t>2616.76</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>111.74</t>
+          <t>2460.52</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>350.48</t>
+          <t>1875.10</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>350.35</t>
+          <t>1866.49</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1424.65</t>
+          <t>1948.09</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1418.74</t>
+          <t>1953.30</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1571.69</t>
+          <t>3013.70</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>111.27</t>
+          <t>2922.94</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1235.67</t>
+          <t>2635.94</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>110.86</t>
+          <t>2485.17</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>344.10</t>
+          <t>1886.21</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>343.93</t>
+          <t>1875.39</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1427.91</t>
+          <t>1957.65</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1421.71</t>
+          <t>1963.44</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1363.63</t>
+          <t>3044.58</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>110.20</t>
+          <t>2948.18</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>767.24</t>
+          <t>2656.32</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>109.82</t>
+          <t>2501.30</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>327.20</t>
+          <t>1899.93</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>327.03</t>
+          <t>1889.34</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1431.29</t>
+          <t>1970.24</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1425.06</t>
+          <t>1976.09</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1145.61</t>
+          <t>3069.56</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>109.04</t>
+          <t>2970.65</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>542.71</t>
+          <t>2673.87</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>108.72</t>
+          <t>2523.29</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>302.01</t>
+          <t>1910.84</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>301.87</t>
+          <t>1901.36</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1331.11</t>
+          <t>1980.66</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1267.28</t>
+          <t>1985.90</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>927.36</t>
+          <t>3090.85</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>107.58</t>
+          <t>2994.85</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>318.78</t>
+          <t>2693.85</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>107.34</t>
+          <t>2543.40</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>263.01</t>
+          <t>1931.61</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>262.82</t>
+          <t>1922.23</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1109.44</t>
+          <t>2000.08</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1044.65</t>
+          <t>2005.39</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1813.83</t>
+          <t>3190.42</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>105.37</t>
+          <t>3095.54</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1608.47</t>
+          <t>2790.68</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>105.27</t>
+          <t>2608.15</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>195.67</t>
+          <t>2024.04</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>195.08</t>
+          <t>2013.73</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1085.97</t>
+          <t>2069.80</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1026.31</t>
+          <t>2060.62</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2054.32</t>
+          <t>3758.35</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>145.42</t>
+          <t>3638.27</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1821.00</t>
+          <t>3342.51</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>142.28</t>
+          <t>3102.22</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>262.01</t>
+          <t>2434.83</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>262.58</t>
+          <t>2432.84</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1424.62</t>
+          <t>2656.52</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1426.83</t>
+          <t>2660.60</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2849.70</t>
+          <t>3077.83</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2432.06</t>
+          <t>2861.26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>811.46</t>
+          <t>1315.48</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2077.99</t>
+          <t>2491.12</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1696.65</t>
+          <t>2075.61</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1690.72</t>
+          <t>2065.91</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1963.92</t>
+          <t>2197.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1956.71</t>
+          <t>2189.65</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3188.56</t>
+          <t>3427.42</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2710.47</t>
+          <t>3179.97</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2688.16</t>
+          <t>2995.30</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2263.37</t>
+          <t>2697.54</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1767.30</t>
+          <t>2130.02</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1751.83</t>
+          <t>2118.47</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2027.19</t>
+          <t>2297.24</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2017.61</t>
+          <t>2296.03</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3157.49</t>
+          <t>3399.31</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2715.48</t>
+          <t>3172.08</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2651.95</t>
+          <t>2938.88</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2244.00</t>
+          <t>2688.70</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1764.67</t>
+          <t>2103.41</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1758.32</t>
+          <t>2091.75</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2136.02</t>
+          <t>2268.68</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2126.67</t>
+          <t>2272.32</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3162.17</t>
+          <t>3413.25</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2727.21</t>
+          <t>3167.47</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2710.54</t>
+          <t>2949.05</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2255.01</t>
+          <t>2719.56</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1771.01</t>
+          <t>2108.74</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1765.85</t>
+          <t>2097.30</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2111.84</t>
+          <t>2273.69</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2102.29</t>
+          <t>2277.57</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3168.60</t>
+          <t>3426.32</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2729.91</t>
+          <t>3168.92</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2675.97</t>
+          <t>2964.63</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2270.72</t>
+          <t>2718.78</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1771.67</t>
+          <t>2122.46</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1767.80</t>
+          <t>2112.85</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2146.03</t>
+          <t>2282.09</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2135.74</t>
+          <t>2291.04</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3169.81</t>
+          <t>3434.22</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2728.04</t>
+          <t>3181.43</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2686.10</t>
+          <t>2978.44</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2285.33</t>
+          <t>2718.83</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1769.84</t>
+          <t>2138.38</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1767.22</t>
+          <t>2132.36</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2118.47</t>
+          <t>2297.09</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2108.87</t>
+          <t>2300.49</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3172.26</t>
+          <t>3447.50</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2723.75</t>
+          <t>3200.72</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2695.43</t>
+          <t>2993.53</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2299.75</t>
+          <t>2727.15</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1775.46</t>
+          <t>2150.69</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1766.73</t>
+          <t>2139.97</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2122.32</t>
+          <t>2305.84</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2112.70</t>
+          <t>2309.10</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3191.03</t>
+          <t>3464.45</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2731.32</t>
+          <t>3217.95</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2713.80</t>
+          <t>3013.29</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2319.01</t>
+          <t>2745.92</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1790.57</t>
+          <t>2166.85</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1781.86</t>
+          <t>2156.98</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2132.32</t>
+          <t>2321.63</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2122.79</t>
+          <t>2331.86</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3306.45</t>
+          <t>3571.70</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2814.89</t>
+          <t>3339.17</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2784.43</t>
+          <t>3112.20</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2374.04</t>
+          <t>2803.24</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1883.04</t>
+          <t>2267.85</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1874.26</t>
+          <t>2256.12</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2196.88</t>
+          <t>2400.43</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2187.14</t>
+          <t>2392.90</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4013.12</t>
+          <t>4338.39</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3439.77</t>
+          <t>4080.82</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3485.88</t>
+          <t>3869.60</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2978.14</t>
+          <t>3383.79</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2284.38</t>
+          <t>2728.64</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2301.32</t>
+          <t>2729.93</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2888.86</t>
+          <t>3175.49</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2892.17</t>
+          <t>3183.40</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_TampaTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_TampaTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3011.22</t>
+          <t>3120.23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2803.35</t>
+          <t>2373.03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>533.08</t>
+          <t>764.39</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2374.28</t>
+          <t>1968.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1927.53</t>
+          <t>1586.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1917.66</t>
+          <t>1577.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2169.91</t>
+          <t>2229.49</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2160.41</t>
+          <t>2214.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3366.04</t>
+          <t>3482.25</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3092.97</t>
+          <t>2662.95</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2943.68</t>
+          <t>3055.75</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2609.65</t>
+          <t>2171.96</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2045.62</t>
+          <t>1729.86</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2036.03</t>
+          <t>1719.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2278.96</t>
+          <t>2318.02</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2287.33</t>
+          <t>2331.78</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3338.33</t>
+          <t>3420.56</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3076.67</t>
+          <t>2623.36</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2900.60</t>
+          <t>3036.89</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2596.72</t>
+          <t>2143.29</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2029.19</t>
+          <t>1698.57</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2019.60</t>
+          <t>1675.10</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2254.32</t>
+          <t>2300.59</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2259.95</t>
+          <t>2315.90</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3344.89</t>
+          <t>3408.30</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3090.44</t>
+          <t>2635.90</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2902.52</t>
+          <t>3039.42</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2616.13</t>
+          <t>2161.32</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2037.86</t>
+          <t>1717.14</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2028.33</t>
+          <t>1704.52</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2260.81</t>
+          <t>2335.29</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2266.52</t>
+          <t>2349.80</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3350.46</t>
+          <t>3416.42</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3104.75</t>
+          <t>2647.46</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2915.20</t>
+          <t>3031.73</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2635.00</t>
+          <t>2173.55</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2047.58</t>
+          <t>1715.53</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2038.08</t>
+          <t>1702.71</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2267.84</t>
+          <t>2339.11</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2273.55</t>
+          <t>2371.66</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3362.28</t>
+          <t>3417.90</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3106.81</t>
+          <t>2658.42</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2928.54</t>
+          <t>3017.34</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2660.09</t>
+          <t>2177.34</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2056.03</t>
+          <t>1717.78</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2046.55</t>
+          <t>1704.86</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2274.00</t>
+          <t>2325.03</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2279.69</t>
+          <t>2354.91</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3374.94</t>
+          <t>3421.30</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3118.76</t>
+          <t>2667.31</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2940.73</t>
+          <t>3016.06</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2670.73</t>
+          <t>2186.16</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2064.08</t>
+          <t>1721.52</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2054.61</t>
+          <t>1708.50</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2284.44</t>
+          <t>2325.87</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2290.15</t>
+          <t>2355.82</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3392.66</t>
+          <t>3430.86</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3137.00</t>
+          <t>2681.81</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2955.84</t>
+          <t>3018.65</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2687.62</t>
+          <t>2201.55</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2077.68</t>
+          <t>1731.63</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2068.07</t>
+          <t>1718.68</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2293.33</t>
+          <t>2330.85</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2298.96</t>
+          <t>2360.51</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3496.13</t>
+          <t>3517.84</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3238.27</t>
+          <t>2774.55</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3044.82</t>
+          <t>3066.13</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2748.88</t>
+          <t>2248.74</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2185.77</t>
+          <t>1802.81</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2173.61</t>
+          <t>1792.50</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2356.19</t>
+          <t>2412.73</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2345.32</t>
+          <t>2408.11</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4238.01</t>
+          <t>4182.84</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3846.91</t>
+          <t>3357.53</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3730.72</t>
+          <t>3776.11</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3255.84</t>
+          <t>2725.59</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2656.71</t>
+          <t>2148.32</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2654.12</t>
+          <t>2134.21</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>3089.23</t>
+          <t>3121.31</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>3091.04</t>
+          <t>3139.50</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2978.31</t>
+          <t>3057.19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2828.11</t>
+          <t>2203.47</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>580.05</t>
+          <t>582.15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2449.88</t>
+          <t>1917.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024.41</t>
+          <t>1613.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2015.55</t>
+          <t>1607.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2167.33</t>
+          <t>2251.95</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2161.55</t>
+          <t>2256.72</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3325.03</t>
+          <t>3411.06</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3147.63</t>
+          <t>2474.74</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2965.58</t>
+          <t>3012.34</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2652.14</t>
+          <t>2110.91</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2094.95</t>
+          <t>1666.98</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2082.92</t>
+          <t>1660.03</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2271.80</t>
+          <t>2336.45</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2279.12</t>
+          <t>2367.60</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3292.24</t>
+          <t>3373.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3131.65</t>
+          <t>2405.48</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2936.32</t>
+          <t>2958.59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2642.55</t>
+          <t>1986.09</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2088.72</t>
+          <t>1579.87</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2076.61</t>
+          <t>1573.55</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2252.36</t>
+          <t>2305.44</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2260.47</t>
+          <t>2336.30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3302.70</t>
+          <t>3375.55</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3146.44</t>
+          <t>2325.28</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2942.62</t>
+          <t>2958.73</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2654.33</t>
+          <t>1989.05</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2094.39</t>
+          <t>1583.53</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2084.24</t>
+          <t>1577.18</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2252.04</t>
+          <t>2306.80</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2261.36</t>
+          <t>2336.99</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3305.76</t>
+          <t>3382.73</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3162.11</t>
+          <t>2320.51</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2945.65</t>
+          <t>2967.06</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2663.86</t>
+          <t>1991.00</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2097.81</t>
+          <t>1813.67</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2084.76</t>
+          <t>1804.71</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2253.88</t>
+          <t>2307.08</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2263.18</t>
+          <t>2336.35</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3320.01</t>
+          <t>3392.21</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3173.73</t>
+          <t>2323.24</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2948.03</t>
+          <t>2976.12</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2669.95</t>
+          <t>2308.72</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2110.81</t>
+          <t>1815.56</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2100.05</t>
+          <t>1803.89</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2257.06</t>
+          <t>2305.71</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2265.18</t>
+          <t>2334.89</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3331.84</t>
+          <t>3401.20</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3187.48</t>
+          <t>2346.12</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2952.02</t>
+          <t>2980.63</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2680.52</t>
+          <t>2147.21</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2117.91</t>
+          <t>1818.44</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2107.16</t>
+          <t>1809.53</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2259.40</t>
+          <t>2301.68</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2271.99</t>
+          <t>2331.79</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3351.94</t>
+          <t>3416.79</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3206.20</t>
+          <t>2347.54</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2962.15</t>
+          <t>2990.60</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2694.91</t>
+          <t>2034.90</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2131.97</t>
+          <t>1830.88</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2120.77</t>
+          <t>1822.09</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2273.51</t>
+          <t>2310.88</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2279.85</t>
+          <t>2339.79</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3468.79</t>
+          <t>3515.87</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3301.95</t>
+          <t>2414.10</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>3046.36</t>
+          <t>3048.23</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2748.59</t>
+          <t>2075.83</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2220.18</t>
+          <t>1912.89</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2209.40</t>
+          <t>1903.53</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2330.15</t>
+          <t>2401.54</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2322.61</t>
+          <t>2393.11</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4219.95</t>
+          <t>4225.68</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3952.20</t>
+          <t>2961.23</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3735.84</t>
+          <t>3697.20</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3368.13</t>
+          <t>2421.89</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2691.69</t>
+          <t>1946.66</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2684.69</t>
+          <t>1945.13</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>3081.49</t>
+          <t>3082.68</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>3085.32</t>
+          <t>3088.00</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3001.50</t>
+          <t>2993.55</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2841.00</t>
+          <t>2582.28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>397.30</t>
+          <t>561.69</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2457.85</t>
+          <t>2208.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2041.47</t>
+          <t>1788.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2031.92</t>
+          <t>1781.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2126.31</t>
+          <t>2159.63</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2128.63</t>
+          <t>2152.66</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3356.53</t>
+          <t>3264.44</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3179.97</t>
+          <t>2940.31</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2931.21</t>
+          <t>2794.03</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2684.46</t>
+          <t>2467.81</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2114.25</t>
+          <t>1859.08</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2104.63</t>
+          <t>1849.93</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2230.23</t>
+          <t>2217.69</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2238.88</t>
+          <t>2244.54</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3324.35</t>
+          <t>3238.18</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3172.08</t>
+          <t>2949.17</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2895.96</t>
+          <t>2743.14</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2688.70</t>
+          <t>2479.73</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2092.96</t>
+          <t>1871.02</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2082.81</t>
+          <t>1868.34</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2207.31</t>
+          <t>2193.30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2214.10</t>
+          <t>2220.52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3333.12</t>
+          <t>3253.28</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3167.47</t>
+          <t>2983.91</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2925.95</t>
+          <t>2912.04</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2719.56</t>
+          <t>2513.72</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2100.10</t>
+          <t>1908.27</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2088.97</t>
+          <t>1897.79</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2220.55</t>
+          <t>2196.75</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2227.34</t>
+          <t>2223.73</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3342.50</t>
+          <t>3365.40</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3168.92</t>
+          <t>3015.87</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2935.03</t>
+          <t>2916.54</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2718.78</t>
+          <t>2710.37</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2118.70</t>
+          <t>2113.89</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2105.90</t>
+          <t>2101.17</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2227.16</t>
+          <t>2209.36</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2234.06</t>
+          <t>2229.44</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3356.35</t>
+          <t>3370.12</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3181.43</t>
+          <t>3035.29</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2942.61</t>
+          <t>2922.50</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2718.83</t>
+          <t>2716.91</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2136.87</t>
+          <t>2119.18</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2132.36</t>
+          <t>2106.48</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2237.43</t>
+          <t>2212.78</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2246.12</t>
+          <t>2235.04</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3367.81</t>
+          <t>3377.05</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3200.72</t>
+          <t>3242.72</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2951.23</t>
+          <t>2929.45</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2716.03</t>
+          <t>2725.55</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2119.33</t>
+          <t>2124.79</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2104.96</t>
+          <t>2113.23</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2245.57</t>
+          <t>2219.38</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2252.45</t>
+          <t>2236.94</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3387.24</t>
+          <t>3393.48</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3217.95</t>
+          <t>3258.92</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2968.36</t>
+          <t>2944.52</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2728.32</t>
+          <t>2741.98</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2138.57</t>
+          <t>2140.13</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2128.52</t>
+          <t>2128.64</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2255.08</t>
+          <t>2234.16</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2264.69</t>
+          <t>2251.32</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3492.87</t>
+          <t>3510.81</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3339.17</t>
+          <t>3374.31</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>3057.72</t>
+          <t>3015.05</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2799.97</t>
+          <t>2806.40</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2267.71</t>
+          <t>2241.62</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2256.08</t>
+          <t>2229.94</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2321.43</t>
+          <t>2337.18</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2307.81</t>
+          <t>2326.63</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4258.77</t>
+          <t>4160.01</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4080.82</t>
+          <t>3893.67</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3767.92</t>
+          <t>3614.94</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3383.79</t>
+          <t>3298.25</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2728.64</t>
+          <t>2643.35</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2729.93</t>
+          <t>2641.26</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>3077.81</t>
+          <t>2989.65</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>3080.97</t>
+          <t>2994.27</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2952.45</t>
+          <t>2746.86</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2825.69</t>
+          <t>2587.19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>565.38</t>
+          <t>330.55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2473.42</t>
+          <t>2158.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2051.47</t>
+          <t>2107.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2043.08</t>
+          <t>2097.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2099.66</t>
+          <t>1880.33</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2103.33</t>
+          <t>1885.61</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3280.93</t>
+          <t>3112.05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3129.12</t>
+          <t>2917.18</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2874.30</t>
+          <t>2674.35</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2676.18</t>
+          <t>2691.18</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2115.52</t>
+          <t>2174.48</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2105.35</t>
+          <t>2165.29</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2197.09</t>
+          <t>1966.39</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2209.56</t>
+          <t>1984.40</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3246.21</t>
+          <t>3076.05</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3104.07</t>
+          <t>2897.09</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2852.10</t>
+          <t>2604.05</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2674.17</t>
+          <t>2676.14</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2083.88</t>
+          <t>2146.05</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2073.79</t>
+          <t>2131.90</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2169.77</t>
+          <t>2233.60</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2176.03</t>
+          <t>2262.46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3252.94</t>
+          <t>3081.04</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3113.48</t>
+          <t>2908.24</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2843.64</t>
+          <t>2859.00</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2679.15</t>
+          <t>2688.07</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2082.18</t>
+          <t>2146.78</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2072.19</t>
+          <t>2132.86</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2174.68</t>
+          <t>2236.82</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2180.78</t>
+          <t>2259.07</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3263.16</t>
+          <t>3090.47</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3125.94</t>
+          <t>2924.28</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2865.24</t>
+          <t>2869.56</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2704.55</t>
+          <t>2394.03</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2088.94</t>
+          <t>2151.85</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2078.93</t>
+          <t>2138.09</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2182.81</t>
+          <t>2244.17</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2188.80</t>
+          <t>2262.54</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3272.83</t>
+          <t>3099.91</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3137.45</t>
+          <t>2927.15</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2892.71</t>
+          <t>2880.71</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2715.02</t>
+          <t>2405.53</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2095.04</t>
+          <t>2154.77</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2085.18</t>
+          <t>2143.19</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2192.91</t>
+          <t>2251.10</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2196.13</t>
+          <t>2266.58</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3282.57</t>
+          <t>3109.47</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3149.25</t>
+          <t>2937.82</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2915.73</t>
+          <t>2646.53</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2725.98</t>
+          <t>2424.88</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2112.37</t>
+          <t>1897.84</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2102.49</t>
+          <t>1859.29</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2213.84</t>
+          <t>2256.45</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2217.39</t>
+          <t>2271.73</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3297.51</t>
+          <t>3125.32</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3169.96</t>
+          <t>2953.88</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2944.17</t>
+          <t>2662.61</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2745.92</t>
+          <t>2444.70</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2129.30</t>
+          <t>1866.66</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2119.47</t>
+          <t>1857.93</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2229.17</t>
+          <t>2268.53</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2235.90</t>
+          <t>2283.49</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3395.06</t>
+          <t>3377.38</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3266.42</t>
+          <t>3060.04</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>3036.05</t>
+          <t>2725.80</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2800.27</t>
+          <t>2503.06</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2219.98</t>
+          <t>1957.46</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2210.10</t>
+          <t>1948.56</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2286.46</t>
+          <t>2354.72</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2283.36</t>
+          <t>2345.73</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>4038.71</t>
+          <t>3941.88</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3896.56</t>
+          <t>3712.88</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3677.40</t>
+          <t>3406.98</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3367.97</t>
+          <t>3041.06</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2677.57</t>
+          <t>2380.81</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2665.28</t>
+          <t>2378.73</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2974.26</t>
+          <t>2754.24</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2984.95</t>
+          <t>2758.13</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2876.90</t>
+          <t>2522.39</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2787.42</t>
+          <t>2453.91</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1197.15</t>
+          <t>285.75</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2491.12</t>
+          <t>2091.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025.16</t>
+          <t>1703.02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2016.58</t>
+          <t>1696.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2090.86</t>
+          <t>1759.70</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2066.14</t>
+          <t>1773.43</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3216.66</t>
+          <t>2864.46</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3107.52</t>
+          <t>2761.33</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2905.18</t>
+          <t>2536.18</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2697.54</t>
+          <t>2314.24</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2082.07</t>
+          <t>1775.89</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2071.95</t>
+          <t>1769.80</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2184.83</t>
+          <t>1841.65</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2190.30</t>
+          <t>1864.41</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3180.82</t>
+          <t>2835.27</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3070.95</t>
+          <t>2738.15</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2831.27</t>
+          <t>2457.71</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2677.57</t>
+          <t>2298.84</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2065.45</t>
+          <t>1757.85</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2055.70</t>
+          <t>1749.96</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2136.18</t>
+          <t>1818.80</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2148.97</t>
+          <t>1838.64</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3194.32</t>
+          <t>2843.31</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3081.19</t>
+          <t>2747.70</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2841.09</t>
+          <t>2460.14</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2687.45</t>
+          <t>2309.25</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2071.72</t>
+          <t>1764.21</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2061.66</t>
+          <t>1756.33</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2154.01</t>
+          <t>1824.29</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2161.06</t>
+          <t>1843.14</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3219.57</t>
+          <t>2854.01</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3094.26</t>
+          <t>2759.13</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2858.26</t>
+          <t>2471.09</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2701.72</t>
+          <t>2321.18</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2083.64</t>
+          <t>1772.50</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2073.01</t>
+          <t>1764.60</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>2160.91</t>
+          <t>1832.14</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2166.47</t>
+          <t>1850.72</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3232.94</t>
+          <t>2863.64</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3097.00</t>
+          <t>2769.49</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2881.53</t>
+          <t>2481.81</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2714.64</t>
+          <t>2331.86</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2094.60</t>
+          <t>1780.15</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2083.32</t>
+          <t>1772.10</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2167.79</t>
+          <t>1839.23</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>2173.65</t>
+          <t>1857.83</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3249.17</t>
+          <t>2873.11</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3111.62</t>
+          <t>2779.58</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2895.23</t>
+          <t>2492.45</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2727.15</t>
+          <t>2342.21</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2105.39</t>
+          <t>1787.86</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2093.97</t>
+          <t>1779.74</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2176.22</t>
+          <t>1846.61</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2181.95</t>
+          <t>1865.41</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3250.89</t>
+          <t>2888.97</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3131.62</t>
+          <t>2795.95</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2914.44</t>
+          <t>2508.46</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2745.39</t>
+          <t>2358.34</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2122.62</t>
+          <t>1802.23</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2112.64</t>
+          <t>1794.26</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2193.29</t>
+          <t>1860.50</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2200.71</t>
+          <t>1878.79</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3343.92</t>
+          <t>2992.74</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3226.96</t>
+          <t>2898.09</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>3006.97</t>
+          <t>2571.61</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2802.26</t>
+          <t>2416.77</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2213.53</t>
+          <t>1890.53</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2203.36</t>
+          <t>1882.67</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2264.14</t>
+          <t>1950.04</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2254.84</t>
+          <t>1942.68</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3938.64</t>
+          <t>3550.38</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3818.54</t>
+          <t>3426.71</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3588.64</t>
+          <t>3139.08</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3297.56</t>
+          <t>2887.76</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2619.28</t>
+          <t>2281.94</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2618.26</t>
+          <t>2280.74</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2885.86</t>
+          <t>2555.86</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2890.67</t>
+          <t>2559.71</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2871.67</t>
+          <t>2308.78</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2775.47</t>
+          <t>2262.95</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>852.99</t>
+          <t>357.93</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2394.15</t>
+          <t>1933.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2003.87</t>
+          <t>1584.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1995.24</t>
+          <t>1588.41</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2054.44</t>
+          <t>1610.56</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2045.97</t>
+          <t>1650.89</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3163.45</t>
+          <t>2594.52</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3057.09</t>
+          <t>2518.69</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2820.58</t>
+          <t>2451.57</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2590.87</t>
+          <t>2189.52</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2057.37</t>
+          <t>1686.24</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2047.22</t>
+          <t>1681.12</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2133.58</t>
+          <t>1688.72</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2140.10</t>
+          <t>1720.93</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3137.79</t>
+          <t>2527.92</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3035.13</t>
+          <t>2457.56</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2770.13</t>
+          <t>2193.17</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2561.61</t>
+          <t>2192.22</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2033.88</t>
+          <t>1664.39</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2023.76</t>
+          <t>1657.29</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2108.67</t>
+          <t>1682.67</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2114.40</t>
+          <t>1691.19</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3148.50</t>
+          <t>2524.24</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3045.51</t>
+          <t>2455.56</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2780.19</t>
+          <t>2184.23</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2570.57</t>
+          <t>2194.64</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2042.11</t>
+          <t>1668.90</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2032.09</t>
+          <t>1661.82</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>2115.46</t>
+          <t>1681.57</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2121.05</t>
+          <t>1685.49</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3163.73</t>
+          <t>2525.46</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3059.61</t>
+          <t>2457.84</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2795.64</t>
+          <t>2186.54</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2583.39</t>
+          <t>2196.23</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2052.99</t>
+          <t>1676.14</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2043.00</t>
+          <t>1669.07</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>2125.39</t>
+          <t>1681.27</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>2130.93</t>
+          <t>1692.74</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3178.55</t>
+          <t>2527.55</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3078.24</t>
+          <t>2460.70</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2807.45</t>
+          <t>2190.04</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2627.76</t>
+          <t>2197.93</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2063.00</t>
+          <t>1682.99</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2053.07</t>
+          <t>1675.91</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>2134.62</t>
+          <t>1682.82</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>2140.11</t>
+          <t>1699.71</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3192.86</t>
+          <t>2497.67</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3094.96</t>
+          <t>2431.01</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2821.50</t>
+          <t>2175.83</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2639.51</t>
+          <t>2199.99</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2072.83</t>
+          <t>1689.86</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2062.94</t>
+          <t>1682.80</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>2143.84</t>
+          <t>1695.57</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>2149.31</t>
+          <t>1712.67</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3213.11</t>
+          <t>2506.93</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3116.99</t>
+          <t>2440.90</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2843.66</t>
+          <t>2188.71</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2658.15</t>
+          <t>2206.60</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2089.20</t>
+          <t>1703.88</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2079.36</t>
+          <t>1696.83</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>2158.87</t>
+          <t>1708.58</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>2164.77</t>
+          <t>1725.33</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3327.73</t>
+          <t>2594.17</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3215.74</t>
+          <t>2527.51</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2936.68</t>
+          <t>2242.77</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2721.30</t>
+          <t>2275.59</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2177.33</t>
+          <t>1790.59</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2167.45</t>
+          <t>1783.63</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2242.27</t>
+          <t>1789.44</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2231.26</t>
+          <t>1782.44</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3865.77</t>
+          <t>3063.62</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3757.50</t>
+          <t>2980.59</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3487.32</t>
+          <t>2879.59</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3224.16</t>
+          <t>2632.19</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2578.83</t>
+          <t>2161.76</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2577.48</t>
+          <t>2157.26</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2876.15</t>
+          <t>2216.14</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2880.78</t>
+          <t>2219.07</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2824.99</t>
+          <t>2155.00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2752.34</t>
+          <t>2093.21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1109.20</t>
+          <t>548.85</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2420.78</t>
+          <t>1813.56</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1993.29</t>
+          <t>1478.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1984.82</t>
+          <t>1472.68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2042.50</t>
+          <t>1519.71</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2037.24</t>
+          <t>1547.37</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3115.16</t>
+          <t>2399.58</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3012.06</t>
+          <t>2330.01</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2781.82</t>
+          <t>2222.62</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2600.66</t>
+          <t>1977.29</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2041.48</t>
+          <t>1526.99</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2031.53</t>
+          <t>1520.63</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2118.00</t>
+          <t>1575.42</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2126.55</t>
+          <t>1598.94</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3071.34</t>
+          <t>2299.08</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2973.98</t>
+          <t>2288.29</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2715.94</t>
+          <t>2069.88</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2567.91</t>
+          <t>1941.29</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2028.09</t>
+          <t>1472.70</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2018.08</t>
+          <t>1467.68</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2094.86</t>
+          <t>1513.29</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2099.39</t>
+          <t>1533.27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3082.57</t>
+          <t>2296.28</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2982.53</t>
+          <t>2287.52</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2725.62</t>
+          <t>2034.08</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2578.73</t>
+          <t>1942.50</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2034.16</t>
+          <t>1485.00</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2024.23</t>
+          <t>1484.25</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2105.77</t>
+          <t>1509.85</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2112.69</t>
+          <t>1528.17</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3096.72</t>
+          <t>2300.51</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2996.74</t>
+          <t>2296.58</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2737.54</t>
+          <t>2030.70</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2592.21</t>
+          <t>1947.24</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2043.52</t>
+          <t>1492.88</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2033.63</t>
+          <t>1487.69</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>2116.72</t>
+          <t>1510.49</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>2122.38</t>
+          <t>1528.47</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3109.63</t>
+          <t>2304.66</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3009.71</t>
+          <t>2304.98</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2748.36</t>
+          <t>2029.70</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2604.49</t>
+          <t>1951.97</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2052.35</t>
+          <t>1496.59</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2042.48</t>
+          <t>1491.40</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>2125.34</t>
+          <t>1522.40</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>2130.97</t>
+          <t>1529.65</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3122.09</t>
+          <t>2309.04</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3022.23</t>
+          <t>2313.16</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2760.82</t>
+          <t>2030.09</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2616.45</t>
+          <t>1957.11</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2061.32</t>
+          <t>1500.95</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2051.47</t>
+          <t>1495.76</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>2134.18</t>
+          <t>1537.32</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>2139.80</t>
+          <t>1539.70</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3140.15</t>
+          <t>2317.17</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3040.51</t>
+          <t>2325.18</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2780.94</t>
+          <t>2036.69</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2633.91</t>
+          <t>1967.59</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2076.99</t>
+          <t>1511.34</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2067.19</t>
+          <t>1506.14</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>2148.92</t>
+          <t>1553.89</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>2154.53</t>
+          <t>1556.51</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3232.92</t>
+          <t>2376.23</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3137.72</t>
+          <t>2391.77</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2873.57</t>
+          <t>2107.62</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2689.80</t>
+          <t>2018.38</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2165.72</t>
+          <t>1582.84</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2155.89</t>
+          <t>1577.58</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2211.74</t>
+          <t>1603.22</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2202.37</t>
+          <t>1606.29</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3758.35</t>
+          <t>2922.13</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3638.27</t>
+          <t>2849.92</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3400.87</t>
+          <t>2633.82</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3138.92</t>
+          <t>2428.94</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2551.83</t>
+          <t>1907.56</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2551.00</t>
+          <t>1907.15</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2799.39</t>
+          <t>2096.17</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2803.98</t>
+          <t>2101.75</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2677.30</t>
+          <t>2304.31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2597.35</t>
+          <t>2230.20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1315.48</t>
+          <t>647.04</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2254.81</t>
+          <t>1883.13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1820.61</t>
+          <t>1501.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1811.59</t>
+          <t>1494.92</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1878.56</t>
+          <t>1590.91</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1879.19</t>
+          <t>1613.76</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2992.98</t>
+          <t>2514.88</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2893.87</t>
+          <t>2409.42</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2659.41</t>
+          <t>2293.16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2453.79</t>
+          <t>2011.81</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1890.69</t>
+          <t>1554.24</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1880.74</t>
+          <t>1547.27</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1966.29</t>
+          <t>1649.41</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1973.85</t>
+          <t>1674.88</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2968.29</t>
+          <t>2440.52</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2871.85</t>
+          <t>2329.12</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2602.06</t>
+          <t>2164.13</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2441.96</t>
+          <t>1925.34</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1865.98</t>
+          <t>1523.29</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1856.19</t>
+          <t>1515.08</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1936.60</t>
+          <t>1610.74</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1942.77</t>
+          <t>1628.54</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2987.34</t>
+          <t>2431.96</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2896.63</t>
+          <t>2323.35</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2616.76</t>
+          <t>2103.18</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2460.52</t>
+          <t>1920.31</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1875.10</t>
+          <t>1517.79</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1866.49</t>
+          <t>1510.62</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1948.09</t>
+          <t>1607.14</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1953.30</t>
+          <t>1623.23</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3013.70</t>
+          <t>2430.52</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2922.94</t>
+          <t>2323.80</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2635.94</t>
+          <t>2099.94</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2485.17</t>
+          <t>1920.40</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1886.21</t>
+          <t>1510.75</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1875.39</t>
+          <t>1503.58</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1957.65</t>
+          <t>1608.61</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1963.44</t>
+          <t>1624.40</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3044.58</t>
+          <t>2430.41</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2948.18</t>
+          <t>2325.21</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2656.32</t>
+          <t>2103.62</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2501.30</t>
+          <t>1921.06</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1899.93</t>
+          <t>1508.90</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1889.34</t>
+          <t>1501.82</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1970.24</t>
+          <t>1610.81</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1976.09</t>
+          <t>1626.58</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3069.56</t>
+          <t>2431.51</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2970.65</t>
+          <t>2327.62</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2673.87</t>
+          <t>2108.36</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2523.29</t>
+          <t>1922.63</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1910.84</t>
+          <t>1510.43</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1901.36</t>
+          <t>1505.89</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1980.66</t>
+          <t>1613.86</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1985.90</t>
+          <t>1629.75</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3090.85</t>
+          <t>2439.34</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2994.85</t>
+          <t>2336.60</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2693.85</t>
+          <t>2116.47</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2543.40</t>
+          <t>1930.43</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1931.61</t>
+          <t>1512.68</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1922.23</t>
+          <t>1515.29</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>2000.08</t>
+          <t>1622.89</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>2005.39</t>
+          <t>1638.56</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3190.42</t>
+          <t>2526.62</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3095.54</t>
+          <t>2422.24</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2790.68</t>
+          <t>2174.15</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2608.15</t>
+          <t>1983.37</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2024.04</t>
+          <t>1582.61</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2013.73</t>
+          <t>1575.46</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>2069.80</t>
+          <t>1697.12</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>2060.62</t>
+          <t>1690.09</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3779.80</t>
+          <t>3007.43</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3662.73</t>
+          <t>2917.70</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3342.51</t>
+          <t>2577.00</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3102.22</t>
+          <t>2385.43</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2434.83</t>
+          <t>1899.77</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2432.84</t>
+          <t>1894.62</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2656.52</t>
+          <t>2111.92</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2660.60</t>
+          <t>2114.96</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2885.30</t>
+          <t>2338.59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2816.09</t>
+          <t>2203.13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1146.51</t>
+          <t>709.56</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2449.57</t>
+          <t>1871.32</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2028.90</t>
+          <t>1501.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2018.89</t>
+          <t>1495.34</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2099.98</t>
+          <t>1619.05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2092.24</t>
+          <t>1650.66</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3180.67</t>
+          <t>2593.37</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3087.43</t>
+          <t>2400.92</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2809.93</t>
+          <t>2352.24</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2648.95</t>
+          <t>1983.85</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2074.41</t>
+          <t>1523.07</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2062.65</t>
+          <t>1518.36</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2164.72</t>
+          <t>1674.34</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2173.72</t>
+          <t>1715.76</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3149.25</t>
+          <t>2538.23</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3064.51</t>
+          <t>2272.15</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2761.21</t>
+          <t>2226.98</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2626.75</t>
+          <t>1951.71</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2040.78</t>
+          <t>1491.14</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2029.09</t>
+          <t>1486.08</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2128.98</t>
+          <t>1635.59</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2135.94</t>
+          <t>1656.55</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3165.54</t>
+          <t>2532.31</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3080.54</t>
+          <t>2274.07</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2775.49</t>
+          <t>2203.32</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2638.47</t>
+          <t>1954.96</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2046.62</t>
+          <t>1490.71</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2035.02</t>
+          <t>1485.68</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>2133.03</t>
+          <t>1632.55</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2139.53</t>
+          <t>1652.82</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3183.90</t>
+          <t>2532.83</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3098.90</t>
+          <t>2280.40</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2792.94</t>
+          <t>2204.82</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2653.31</t>
+          <t>1962.25</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2056.71</t>
+          <t>1494.08</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2045.15</t>
+          <t>1489.05</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>2141.90</t>
+          <t>1634.58</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>2148.31</t>
+          <t>1656.66</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3200.47</t>
+          <t>2534.24</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3115.66</t>
+          <t>2286.74</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2808.83</t>
+          <t>2208.19</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2666.63</t>
+          <t>1969.26</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2066.33</t>
+          <t>1497.73</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2054.80</t>
+          <t>1492.67</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2150.24</t>
+          <t>1638.03</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>2156.67</t>
+          <t>1659.95</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3216.20</t>
+          <t>2536.55</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3131.79</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2823.97</t>
+          <t>2212.41</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2679.40</t>
+          <t>1976.05</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2076.18</t>
+          <t>1502.46</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2064.67</t>
+          <t>1496.84</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2160.30</t>
+          <t>1642.73</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2166.62</t>
+          <t>1660.07</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3237.42</t>
+          <t>2545.13</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3154.13</t>
+          <t>2302.34</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2844.28</t>
+          <t>2222.13</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2698.66</t>
+          <t>1986.21</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2094.00</t>
+          <t>1513.44</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2082.55</t>
+          <t>1507.02</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2177.60</t>
+          <t>1651.08</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2183.93</t>
+          <t>1669.27</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3335.01</t>
+          <t>2632.90</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3252.74</t>
+          <t>2363.94</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2937.06</t>
+          <t>2277.05</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2762.42</t>
+          <t>2047.57</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2194.96</t>
+          <t>1590.67</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2183.34</t>
+          <t>1584.39</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2257.56</t>
+          <t>1729.12</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2246.44</t>
+          <t>1722.79</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3888.46</t>
+          <t>3071.64</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3770.43</t>
+          <t>2835.84</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3474.88</t>
+          <t>2734.36</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3253.29</t>
+          <t>2411.58</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2614.44</t>
+          <t>1921.58</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2614.09</t>
+          <t>1919.22</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2867.64</t>
+          <t>2210.20</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2871.98</t>
+          <t>2216.15</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3023.39</t>
+          <t>2770.26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2841.27</t>
+          <t>2435.90</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1241.09</t>
+          <t>913.25</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2483.11</t>
+          <t>2074.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2035.93</t>
+          <t>1650.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026.29</t>
+          <t>1646.79</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2193.69</t>
+          <t>1909.40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2189.65</t>
+          <t>1914.29</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3311.13</t>
+          <t>3079.52</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3143.18</t>
+          <t>2711.08</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2977.59</t>
+          <t>2673.56</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2668.76</t>
+          <t>2240.70</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2104.43</t>
+          <t>1695.08</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2092.58</t>
+          <t>1692.43</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2277.37</t>
+          <t>1968.95</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2288.13</t>
+          <t>1996.90</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3273.15</t>
+          <t>3026.57</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3107.51</t>
+          <t>2682.68</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2919.86</t>
+          <t>2592.19</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2667.07</t>
+          <t>2180.31</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2077.21</t>
+          <t>1675.09</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2067.11</t>
+          <t>1666.46</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2232.23</t>
+          <t>1907.99</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2242.44</t>
+          <t>1933.31</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3285.56</t>
+          <t>3024.67</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3114.53</t>
+          <t>2690.34</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2924.14</t>
+          <t>2586.15</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2673.67</t>
+          <t>2192.87</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2081.62</t>
+          <t>1683.42</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2071.96</t>
+          <t>1674.96</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2240.34</t>
+          <t>1905.44</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2246.26</t>
+          <t>1929.05</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3300.90</t>
+          <t>3029.44</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3125.39</t>
+          <t>2701.42</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2938.09</t>
+          <t>2590.86</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2681.55</t>
+          <t>2204.08</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2089.72</t>
+          <t>1696.18</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2079.79</t>
+          <t>1687.39</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2253.71</t>
+          <t>1906.96</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2259.41</t>
+          <t>1927.64</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3312.79</t>
+          <t>3034.52</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3135.68</t>
+          <t>2710.52</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2952.17</t>
+          <t>2597.05</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2691.51</t>
+          <t>2215.37</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2105.51</t>
+          <t>1676.39</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2094.35</t>
+          <t>1667.72</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2256.06</t>
+          <t>1910.93</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2262.20</t>
+          <t>1931.69</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3326.13</t>
+          <t>3040.24</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3145.18</t>
+          <t>2719.54</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2965.72</t>
+          <t>2603.67</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2701.50</t>
+          <t>2226.29</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2134.83</t>
+          <t>1683.61</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2123.57</t>
+          <t>1674.74</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2257.85</t>
+          <t>1916.06</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2263.42</t>
+          <t>1935.47</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3344.89</t>
+          <t>3052.71</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3161.86</t>
+          <t>2734.67</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2984.56</t>
+          <t>2616.24</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2716.85</t>
+          <t>2241.05</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2159.12</t>
+          <t>1697.68</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2147.90</t>
+          <t>1688.69</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2268.31</t>
+          <t>1925.19</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2274.08</t>
+          <t>1945.41</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3436.46</t>
+          <t>3161.26</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3258.83</t>
+          <t>2834.78</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3074.04</t>
+          <t>2676.61</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2775.40</t>
+          <t>2297.31</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2253.93</t>
+          <t>1783.15</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2243.90</t>
+          <t>1774.09</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2330.29</t>
+          <t>2017.82</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2320.54</t>
+          <t>2010.13</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4137.72</t>
+          <t>3937.17</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3869.22</t>
+          <t>3497.44</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3765.80</t>
+          <t>3403.78</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3342.77</t>
+          <t>2818.37</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2669.29</t>
+          <t>2207.39</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2668.16</t>
+          <t>2204.28</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>3046.82</t>
+          <t>2750.76</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>3053.59</t>
+          <t>2760.20</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3077.83</t>
+          <t>2870.20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2861.26</t>
+          <t>2479.91</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>840.55</t>
+          <t>719.34</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2484.10</t>
+          <t>2095.94</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2075.61</t>
+          <t>1690.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2065.91</t>
+          <t>1685.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2197.02</t>
+          <t>2016.91</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2189.13</t>
+          <t>2013.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3427.42</t>
+          <t>3219.82</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3150.12</t>
+          <t>2790.89</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2995.30</t>
+          <t>2767.26</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2686.77</t>
+          <t>2272.93</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2130.02</t>
+          <t>1769.71</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2118.47</t>
+          <t>1749.45</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2297.24</t>
+          <t>2083.83</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2296.03</t>
+          <t>2101.84</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3391.91</t>
+          <t>3181.25</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3114.46</t>
+          <t>2794.07</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2938.88</t>
+          <t>2729.15</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2670.52</t>
+          <t>2278.05</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2103.41</t>
+          <t>1775.88</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2091.75</t>
+          <t>1761.53</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2268.68</t>
+          <t>2055.93</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2272.32</t>
+          <t>2072.28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3400.42</t>
+          <t>3192.37</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3125.83</t>
+          <t>2839.50</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2949.05</t>
+          <t>2739.75</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2679.60</t>
+          <t>2319.95</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2108.74</t>
+          <t>1819.32</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2097.30</t>
+          <t>1807.91</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2273.69</t>
+          <t>2063.59</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2277.57</t>
+          <t>2078.75</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3414.22</t>
+          <t>3201.63</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3141.99</t>
+          <t>2867.04</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2964.63</t>
+          <t>2752.55</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2692.59</t>
+          <t>2350.08</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2122.46</t>
+          <t>1847.29</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2112.85</t>
+          <t>1837.21</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2282.09</t>
+          <t>2071.59</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2291.04</t>
+          <t>2090.64</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3428.55</t>
+          <t>3211.67</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3158.53</t>
+          <t>2884.01</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2978.44</t>
+          <t>2763.53</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2703.48</t>
+          <t>2392.06</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2138.38</t>
+          <t>1843.05</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2125.19</t>
+          <t>1833.61</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2297.09</t>
+          <t>2079.64</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2300.49</t>
+          <t>2098.97</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3443.09</t>
+          <t>3220.96</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3176.65</t>
+          <t>2899.27</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2993.53</t>
+          <t>2773.21</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2713.17</t>
+          <t>2413.49</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2150.69</t>
+          <t>1849.27</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2139.97</t>
+          <t>1839.73</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2305.84</t>
+          <t>2086.54</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2309.10</t>
+          <t>2106.03</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3463.21</t>
+          <t>3235.01</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3208.23</t>
+          <t>2914.73</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3013.29</t>
+          <t>2792.37</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2735.84</t>
+          <t>2431.74</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2166.85</t>
+          <t>1862.39</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2156.98</t>
+          <t>1852.92</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2321.63</t>
+          <t>2081.38</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2331.86</t>
+          <t>2101.13</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3571.70</t>
+          <t>3344.67</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3319.70</t>
+          <t>3017.57</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3112.20</t>
+          <t>2854.80</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2803.24</t>
+          <t>2471.30</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2267.85</t>
+          <t>1946.67</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2256.12</t>
+          <t>1937.05</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2400.43</t>
+          <t>2167.89</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2392.90</t>
+          <t>2161.03</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4338.39</t>
+          <t>4072.21</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4011.72</t>
+          <t>3644.17</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3869.60</t>
+          <t>3553.98</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3379.19</t>
+          <t>2985.22</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2714.16</t>
+          <t>2370.22</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2718.10</t>
+          <t>2368.37</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>3175.49</t>
+          <t>2889.15</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>3183.40</t>
+          <t>2902.62</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3053.49</t>
+          <t>3072.83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2733.56</t>
+          <t>2455.36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>612.56</t>
+          <t>485.33</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2369.82</t>
+          <t>2107.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1982.09</t>
+          <t>1748.84</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1968.39</t>
+          <t>1741.41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2170.12</t>
+          <t>2280.66</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2160.19</t>
+          <t>2283.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3425.32</t>
+          <t>3395.05</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3067.74</t>
+          <t>2695.22</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2968.71</t>
+          <t>3039.32</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2593.41</t>
+          <t>2274.12</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2033.63</t>
+          <t>1789.44</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023.24</t>
+          <t>1781.97</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2258.22</t>
+          <t>2357.01</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2261.87</t>
+          <t>2390.27</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3399.31</t>
+          <t>3352.90</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3054.46</t>
+          <t>2968.88</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2934.86</t>
+          <t>2964.48</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2587.67</t>
+          <t>2516.45</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2081.09</t>
+          <t>1965.84</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2071.08</t>
+          <t>1957.40</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2227.63</t>
+          <t>2313.73</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2233.06</t>
+          <t>2344.85</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3413.25</t>
+          <t>3350.15</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3078.35</t>
+          <t>2969.24</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2944.67</t>
+          <t>2942.32</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2598.56</t>
+          <t>2516.99</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2085.77</t>
+          <t>1965.21</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2075.85</t>
+          <t>1956.61</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2234.66</t>
+          <t>2298.91</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2237.29</t>
+          <t>2327.32</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3426.32</t>
+          <t>3349.01</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3092.72</t>
+          <t>2976.23</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2955.63</t>
+          <t>2932.59</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2616.96</t>
+          <t>2523.69</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2094.82</t>
+          <t>1968.15</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2084.92</t>
+          <t>1959.47</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2242.80</t>
+          <t>2298.60</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2250.30</t>
+          <t>2321.18</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3434.22</t>
+          <t>3352.93</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3104.69</t>
+          <t>2983.56</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2971.14</t>
+          <t>2912.37</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2636.03</t>
+          <t>2530.91</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2103.23</t>
+          <t>1971.81</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2093.33</t>
+          <t>1963.04</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2250.42</t>
+          <t>2276.57</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2257.84</t>
+          <t>2306.16</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3447.50</t>
+          <t>3354.72</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3116.28</t>
+          <t>2992.24</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2982.87</t>
+          <t>2912.97</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2654.23</t>
+          <t>2539.68</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2111.36</t>
+          <t>1977.93</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2101.50</t>
+          <t>1969.08</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2254.41</t>
+          <t>2260.81</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2261.75</t>
+          <t>2290.32</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3464.45</t>
+          <t>3369.45</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3128.11</t>
+          <t>3007.67</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3000.14</t>
+          <t>2936.37</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2683.92</t>
+          <t>2554.91</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2125.73</t>
+          <t>1992.05</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2115.93</t>
+          <t>1983.19</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2281.92</t>
+          <t>2271.85</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2288.87</t>
+          <t>2300.78</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3561.74</t>
+          <t>3469.92</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3220.98</t>
+          <t>3110.83</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3097.13</t>
+          <t>3001.95</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2741.99</t>
+          <t>2612.84</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2209.80</t>
+          <t>2084.24</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2199.97</t>
+          <t>2075.44</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2373.49</t>
+          <t>2357.47</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2362.81</t>
+          <t>2348.36</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4302.33</t>
+          <t>4220.71</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3811.90</t>
+          <t>3599.74</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3807.62</t>
+          <t>3707.46</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3206.18</t>
+          <t>3062.92</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2629.55</t>
+          <t>2452.62</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2631.77</t>
+          <t>2453.07</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>3146.31</t>
+          <t>3028.96</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>3155.56</t>
+          <t>3037.24</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2677.30</t>
+          <t>2155.00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2597.35</t>
+          <t>2093.21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>397.30</t>
+          <t>285.75</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2254.81</t>
+          <t>1813.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1820.61</t>
+          <t>1478.72</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1811.59</t>
+          <t>1472.68</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1878.56</t>
+          <t>1519.71</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1879.19</t>
+          <t>1547.37</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2992.98</t>
+          <t>2399.58</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2893.87</t>
+          <t>2330.01</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2659.41</t>
+          <t>2222.62</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2453.79</t>
+          <t>1977.29</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1890.69</t>
+          <t>1523.07</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1880.74</t>
+          <t>1518.36</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1966.29</t>
+          <t>1575.42</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1973.85</t>
+          <t>1598.94</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2968.29</t>
+          <t>2299.08</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2871.85</t>
+          <t>2272.15</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2602.06</t>
+          <t>2069.88</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2441.96</t>
+          <t>1925.34</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1865.98</t>
+          <t>1472.70</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1856.19</t>
+          <t>1467.68</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1936.60</t>
+          <t>1513.29</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1942.77</t>
+          <t>1533.27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2987.34</t>
+          <t>2296.28</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2896.63</t>
+          <t>2274.07</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2616.76</t>
+          <t>2034.08</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2460.52</t>
+          <t>1920.31</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1875.10</t>
+          <t>1485.00</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1866.49</t>
+          <t>1484.25</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1948.09</t>
+          <t>1509.85</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1953.30</t>
+          <t>1528.17</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3013.70</t>
+          <t>2300.51</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2922.94</t>
+          <t>2280.40</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2635.94</t>
+          <t>2030.70</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2485.17</t>
+          <t>1920.40</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1886.21</t>
+          <t>1492.88</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1875.39</t>
+          <t>1487.69</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1957.65</t>
+          <t>1510.49</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1963.44</t>
+          <t>1528.47</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3044.58</t>
+          <t>2304.66</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2948.18</t>
+          <t>2286.74</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2656.32</t>
+          <t>2029.70</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2501.30</t>
+          <t>1921.06</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1899.93</t>
+          <t>1496.59</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1889.34</t>
+          <t>1491.40</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1970.24</t>
+          <t>1522.40</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1976.09</t>
+          <t>1529.65</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3069.56</t>
+          <t>2309.04</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2970.65</t>
+          <t>2293.00</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2673.87</t>
+          <t>2030.09</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2523.29</t>
+          <t>1922.63</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1910.84</t>
+          <t>1500.95</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1901.36</t>
+          <t>1495.76</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1980.66</t>
+          <t>1537.32</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1985.90</t>
+          <t>1539.70</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3090.85</t>
+          <t>2317.17</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2994.85</t>
+          <t>2302.34</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2693.85</t>
+          <t>2036.69</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2543.40</t>
+          <t>1930.43</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1931.61</t>
+          <t>1511.34</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1922.23</t>
+          <t>1506.14</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>2000.08</t>
+          <t>1553.89</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>2005.39</t>
+          <t>1556.51</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3190.42</t>
+          <t>2376.23</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3095.54</t>
+          <t>2363.94</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2790.68</t>
+          <t>2107.62</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2608.15</t>
+          <t>1983.37</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2024.04</t>
+          <t>1582.61</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2013.73</t>
+          <t>1575.46</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>2069.80</t>
+          <t>1603.22</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>2060.62</t>
+          <t>1606.29</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3758.35</t>
+          <t>2922.13</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3638.27</t>
+          <t>2835.84</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3342.51</t>
+          <t>2577.00</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3102.22</t>
+          <t>2385.43</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2434.83</t>
+          <t>1899.77</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2432.84</t>
+          <t>1894.62</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2656.52</t>
+          <t>2096.17</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2660.60</t>
+          <t>2101.75</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3077.83</t>
+          <t>3120.23</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2861.26</t>
+          <t>2587.19</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1315.48</t>
+          <t>913.25</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2491.12</t>
+          <t>2208.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2075.61</t>
+          <t>2107.95</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2065.91</t>
+          <t>2097.80</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2197.02</t>
+          <t>2280.66</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2189.65</t>
+          <t>2283.08</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3427.42</t>
+          <t>3482.25</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3179.97</t>
+          <t>2940.31</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2995.30</t>
+          <t>3055.75</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2697.54</t>
+          <t>2691.18</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2130.02</t>
+          <t>2174.48</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2118.47</t>
+          <t>2165.29</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2297.24</t>
+          <t>2357.01</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2296.03</t>
+          <t>2390.27</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3399.31</t>
+          <t>3420.56</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3172.08</t>
+          <t>2968.88</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2938.88</t>
+          <t>3036.89</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2688.70</t>
+          <t>2676.14</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2103.41</t>
+          <t>2146.05</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2091.75</t>
+          <t>2131.90</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2268.68</t>
+          <t>2313.73</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2272.32</t>
+          <t>2344.85</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3413.25</t>
+          <t>3408.30</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3167.47</t>
+          <t>2983.91</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2949.05</t>
+          <t>3039.42</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2719.56</t>
+          <t>2688.07</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2108.74</t>
+          <t>2146.78</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2097.30</t>
+          <t>2132.86</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2273.69</t>
+          <t>2335.29</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2277.57</t>
+          <t>2349.80</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3426.32</t>
+          <t>3416.42</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3168.92</t>
+          <t>3015.87</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2964.63</t>
+          <t>3031.73</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2718.78</t>
+          <t>2710.37</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2122.46</t>
+          <t>2151.85</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2112.85</t>
+          <t>2138.09</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2282.09</t>
+          <t>2339.11</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2291.04</t>
+          <t>2371.66</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3434.22</t>
+          <t>3417.90</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3181.43</t>
+          <t>3035.29</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2978.44</t>
+          <t>3017.34</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2718.83</t>
+          <t>2716.91</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2138.38</t>
+          <t>2154.77</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2132.36</t>
+          <t>2143.19</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2297.09</t>
+          <t>2325.03</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2300.49</t>
+          <t>2354.91</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3447.50</t>
+          <t>3421.30</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3200.72</t>
+          <t>3242.72</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2993.53</t>
+          <t>3016.06</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2727.15</t>
+          <t>2725.55</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2150.69</t>
+          <t>2124.79</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2139.97</t>
+          <t>2113.23</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2305.84</t>
+          <t>2325.87</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2309.10</t>
+          <t>2355.82</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3464.45</t>
+          <t>3430.86</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3217.95</t>
+          <t>3258.92</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3013.29</t>
+          <t>3018.65</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2745.92</t>
+          <t>2741.98</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2166.85</t>
+          <t>2140.13</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2156.98</t>
+          <t>2128.64</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2321.63</t>
+          <t>2330.85</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2331.86</t>
+          <t>2360.51</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3571.70</t>
+          <t>3517.84</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3339.17</t>
+          <t>3374.31</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3112.20</t>
+          <t>3066.13</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2803.24</t>
+          <t>2806.40</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2267.85</t>
+          <t>2241.62</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2256.12</t>
+          <t>2229.94</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2400.43</t>
+          <t>2412.73</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2392.90</t>
+          <t>2408.11</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4338.39</t>
+          <t>4225.68</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4080.82</t>
+          <t>3893.67</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3869.60</t>
+          <t>3776.11</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3383.79</t>
+          <t>3298.25</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2728.64</t>
+          <t>2643.35</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2729.93</t>
+          <t>2641.26</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>3175.49</t>
+          <t>3121.31</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>3183.40</t>
+          <t>3139.50</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
